--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2019.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="853" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2019-RO" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2019-END.'!$E$13:$L$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SEPERVISION-END'!$E$13:$K$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SUPERVISION-RO'!$E$13:$J$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'SUPERVISION-RO'!$A$1:$J$100</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="383">
   <si>
     <t>TARJETA DE LIQUIDACION FINANCIERA</t>
   </si>
@@ -1163,14 +1164,36 @@
   <si>
     <t>Sunat/banco de la nacion - i.renta de 5ta.categPlanilla del Personal Obrero y/o Contratado, Pago correspondiente al mes de diciembre 2019</t>
   </si>
+  <si>
+    <t>2.234102 RECUPERACION Y MEJORAMIENTO DE LA COBERTURA FORESTAL PARA AMPLIAR SERVICIOS AMBIENTALES EN LAS MICROCUENCAS CHACABAMBA, CHUMBAO Y RIO BLANCO AHUAYRO DE LA PROVINCIA DE CHINCHEROS - REGION APURIMAC</t>
+  </si>
+  <si>
+    <t>RECUPERACION Y MEJORAMIENTO DE LA COBERTURA FORESTAL PARA AMPLIAR SERVICIOS AMBIENTALES EN LAS MICROCUENCAS CHACABAMBA, CHUMBAO Y RIO BLANCO AHUAYRO DE LA PROVINCIA DE CHINCHEROS - REGION APURIMAC</t>
+  </si>
+  <si>
+    <t>RECURSOS ORDINARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  29-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . . . VIENEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN . . . </t>
+  </si>
+  <si>
+    <t>Abancay, Agosto 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="###,###,###,###,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1299,7 +1322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1655,12 +1678,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2020,6 +2054,58 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="16" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2074,6 +2160,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2082,21 +2192,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2403,38 +2498,38 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
     </row>
     <row r="3" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -2452,21 +2547,21 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2577,15 +2672,15 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140" t="s">
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -2594,19 +2689,19 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="142" t="s">
+      <c r="H12" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="144" t="s">
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="162" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -2616,7 +2711,7 @@
       <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="141"/>
+      <c r="E13" s="159"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28" t="s">
@@ -2634,7 +2729,7 @@
       <c r="L13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="137"/>
+      <c r="M13" s="155"/>
       <c r="N13" s="29" t="s">
         <v>26</v>
       </c>
@@ -17221,14 +17316,14 @@
       <c r="S353" s="59"/>
     </row>
     <row r="354" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="127" t="s">
+      <c r="A354" s="145" t="s">
         <v>344</v>
       </c>
-      <c r="B354" s="128"/>
-      <c r="C354" s="128"/>
-      <c r="D354" s="128"/>
-      <c r="E354" s="128"/>
-      <c r="F354" s="129"/>
+      <c r="B354" s="146"/>
+      <c r="C354" s="146"/>
+      <c r="D354" s="146"/>
+      <c r="E354" s="146"/>
+      <c r="F354" s="147"/>
       <c r="G354" s="78">
         <f t="shared" ref="G354:L354" si="8">SUM(G14:G353)</f>
         <v>577235.12999999942</v>
@@ -17310,16 +17405,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A84" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.42578125" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17330,32 +17428,32 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -17370,18 +17468,18 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -17400,9 +17498,11 @@
         <v>3</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="10" t="s">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -17411,53 +17511,62 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="163"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="132"/>
+    </row>
+    <row r="9" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="132"/>
+    </row>
+    <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="165"/>
+      <c r="C10" s="131" t="s">
         <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
@@ -17474,31 +17583,31 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="87" t="s">
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="88" t="s">
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -17508,16 +17617,16 @@
       <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="170"/>
       <c r="H13" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="123"/>
+      <c r="J13" s="155"/>
       <c r="K13" s="29" t="s">
         <v>26</v>
       </c>
@@ -17527,7 +17636,7 @@
     </row>
     <row r="14" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B14" s="31">
         <v>43546</v>
@@ -17563,7 +17672,7 @@
     </row>
     <row r="15" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B15" s="31">
         <v>43546</v>
@@ -17599,7 +17708,7 @@
     </row>
     <row r="16" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="B16" s="31">
         <v>43643</v>
@@ -17640,8 +17749,8 @@
       <c r="P16" s="59"/>
     </row>
     <row r="17" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <v>176</v>
+      <c r="A17" s="38">
+        <v>4</v>
       </c>
       <c r="B17" s="31">
         <v>43643</v>
@@ -17683,7 +17792,7 @@
     </row>
     <row r="18" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="B18" s="31">
         <v>43643</v>
@@ -17725,7 +17834,7 @@
     </row>
     <row r="19" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="B19" s="31">
         <v>43643</v>
@@ -17766,8 +17875,8 @@
       <c r="P19" s="59"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>179</v>
+      <c r="A20" s="38">
+        <v>7</v>
       </c>
       <c r="B20" s="31">
         <v>43643</v>
@@ -17809,7 +17918,7 @@
     </row>
     <row r="21" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
-        <v>194</v>
+        <v>8</v>
       </c>
       <c r="B21" s="31">
         <v>43677</v>
@@ -17847,33 +17956,33 @@
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <v>197</v>
-      </c>
-      <c r="B22" s="31">
+    <row r="22" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="134">
+        <v>9</v>
+      </c>
+      <c r="B22" s="71">
         <v>43677</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="73">
         <v>1688</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="74">
         <v>5003</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="135">
         <v>6</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="49">
+      <c r="H22" s="76"/>
+      <c r="I22" s="136">
         <v>6</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="137" t="s">
         <v>209</v>
       </c>
       <c r="K22" t="s">
@@ -17887,663 +17996,309 @@
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
     </row>
-    <row r="23" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>243</v>
-      </c>
-      <c r="B23" s="31">
+    <row r="23" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="145" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="138">
+        <f>SUM(G14:G22)</f>
+        <v>5245.86</v>
+      </c>
+      <c r="H23" s="138">
+        <f t="shared" ref="H23:I23" si="0">SUM(H14:H22)</f>
+        <v>4905</v>
+      </c>
+      <c r="I23" s="138">
+        <f t="shared" si="0"/>
+        <v>340.86</v>
+      </c>
+      <c r="J23" s="138"/>
+      <c r="K23" s="139"/>
+    </row>
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="140"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="139"/>
+    </row>
+    <row r="25" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+    </row>
+    <row r="26" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A26" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+    </row>
+    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="163"/>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="132"/>
+    </row>
+    <row r="32" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="163"/>
+      <c r="C32" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="132"/>
+    </row>
+    <row r="33" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="165"/>
+      <c r="C33" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="156"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="155"/>
+      <c r="B36" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="166"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="155"/>
+      <c r="K36" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="145" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37" s="146"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="138">
+        <f>G23</f>
+        <v>5245.86</v>
+      </c>
+      <c r="H37" s="138">
+        <f t="shared" ref="H37:I37" si="1">H23</f>
+        <v>4905</v>
+      </c>
+      <c r="I37" s="138">
+        <f t="shared" si="1"/>
+        <v>340.86</v>
+      </c>
+      <c r="J37" s="138"/>
+      <c r="K37" s="133"/>
+    </row>
+    <row r="38" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38">
+        <v>10</v>
+      </c>
+      <c r="B38" s="31">
         <v>43672</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="57">
+      <c r="C38" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="57">
         <v>876</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E38" s="57">
         <v>11742</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F38" s="34">
         <v>5801</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G38" s="35">
         <v>3990.1</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H38" s="58">
         <v>3990.1</v>
       </c>
-      <c r="I23" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="37" t="s">
+      <c r="I38" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="K38" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="L23" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>244</v>
-      </c>
-      <c r="B24" s="31">
-        <v>43672</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="57">
-        <v>876</v>
-      </c>
-      <c r="E24" s="57">
-        <v>11743</v>
-      </c>
-      <c r="F24" s="34">
-        <v>5801</v>
-      </c>
-      <c r="G24" s="35">
-        <v>155</v>
-      </c>
-      <c r="H24" s="58">
-        <v>155</v>
-      </c>
-      <c r="I24" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="K24" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-    </row>
-    <row r="25" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
-        <v>245</v>
-      </c>
-      <c r="B25" s="31">
-        <v>43672</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="57">
-        <v>876</v>
-      </c>
-      <c r="E25" s="57">
-        <v>11744</v>
-      </c>
-      <c r="F25" s="34">
-        <v>5801</v>
-      </c>
-      <c r="G25" s="35">
-        <v>585</v>
-      </c>
-      <c r="H25" s="58">
-        <v>585</v>
-      </c>
-      <c r="I25" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>247</v>
-      </c>
-      <c r="B26" s="31">
-        <v>43672</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="57">
-        <v>876</v>
-      </c>
-      <c r="E26" s="57">
-        <v>11746</v>
-      </c>
-      <c r="F26" s="34">
-        <v>5801</v>
-      </c>
-      <c r="G26" s="35">
-        <v>405</v>
-      </c>
-      <c r="H26" s="58">
-        <v>405</v>
-      </c>
-      <c r="I26" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="L26" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <v>248</v>
-      </c>
-      <c r="B27" s="31">
-        <v>43672</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="57">
-        <v>876</v>
-      </c>
-      <c r="E27" s="57">
-        <v>15575</v>
-      </c>
-      <c r="F27" s="34">
-        <v>5801</v>
-      </c>
-      <c r="G27" s="35">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="H27" s="58">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="I27" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="K27" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="L27" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-    </row>
-    <row r="28" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>274</v>
-      </c>
-      <c r="B28" s="31">
-        <v>43705</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="57">
-        <v>1026</v>
-      </c>
-      <c r="E28" s="57">
-        <v>14253</v>
-      </c>
-      <c r="F28" s="34">
-        <v>7167</v>
-      </c>
-      <c r="G28" s="35">
-        <v>3690.1</v>
-      </c>
-      <c r="H28" s="58">
-        <v>3690.1</v>
-      </c>
-      <c r="I28" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="K28" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-    </row>
-    <row r="29" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
-        <v>275</v>
-      </c>
-      <c r="B29" s="31">
-        <v>43705</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="57">
-        <v>1026</v>
-      </c>
-      <c r="E29" s="57">
-        <v>14254</v>
-      </c>
-      <c r="F29" s="34">
-        <v>7167</v>
-      </c>
-      <c r="G29" s="35">
-        <v>155</v>
-      </c>
-      <c r="H29" s="58">
-        <v>155</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="K29" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-    </row>
-    <row r="30" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <v>276</v>
-      </c>
-      <c r="B30" s="31">
-        <v>43705</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="57">
-        <v>1026</v>
-      </c>
-      <c r="E30" s="57">
-        <v>14255</v>
-      </c>
-      <c r="F30" s="34">
-        <v>7167</v>
-      </c>
-      <c r="G30" s="35">
-        <v>585</v>
-      </c>
-      <c r="H30" s="58">
-        <v>585</v>
-      </c>
-      <c r="I30" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="K30" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-    </row>
-    <row r="31" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
-        <v>277</v>
-      </c>
-      <c r="B31" s="31">
-        <v>43705</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="57">
-        <v>1026</v>
-      </c>
-      <c r="E31" s="57">
-        <v>14256</v>
-      </c>
-      <c r="F31" s="34">
-        <v>7167</v>
-      </c>
-      <c r="G31" s="35">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="H31" s="58">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="I31" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="K31" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-    </row>
-    <row r="32" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
-        <v>278</v>
-      </c>
-      <c r="B32" s="31">
-        <v>43705</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="57">
-        <v>1026</v>
-      </c>
-      <c r="E32" s="57">
-        <v>14257</v>
-      </c>
-      <c r="F32" s="34">
-        <v>7167</v>
-      </c>
-      <c r="G32" s="35">
-        <v>405</v>
-      </c>
-      <c r="H32" s="58">
-        <v>405</v>
-      </c>
-      <c r="I32" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="L32" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-    </row>
-    <row r="33" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31">
-        <v>43829</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="57">
-        <v>4457</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="F33" s="34">
-        <v>7662</v>
-      </c>
-      <c r="G33" s="35">
-        <v>1446.66</v>
-      </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58">
-        <v>1446.66</v>
-      </c>
-      <c r="J33" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="K33" t="s">
-        <v>87</v>
-      </c>
-      <c r="L33" t="s">
-        <v>88</v>
-      </c>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-    </row>
-    <row r="34" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
-        <v>279</v>
-      </c>
-      <c r="B34" s="31">
-        <v>43829</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="57">
-        <v>4458</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="F34" s="34">
-        <v>7662</v>
-      </c>
-      <c r="G34" s="35">
-        <v>456.84</v>
-      </c>
-      <c r="H34" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="58">
-        <v>456.84</v>
-      </c>
-      <c r="J34" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="K34" t="s">
-        <v>87</v>
-      </c>
-      <c r="L34" t="s">
-        <v>88</v>
-      </c>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-    </row>
-    <row r="35" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
-        <v>307</v>
-      </c>
-      <c r="B35" s="31">
-        <v>43749</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="57">
-        <v>2843</v>
-      </c>
-      <c r="E35" s="57">
-        <v>18312</v>
-      </c>
-      <c r="F35" s="34">
-        <v>8689</v>
-      </c>
-      <c r="G35" s="35">
-        <v>24.07</v>
-      </c>
-      <c r="H35" s="58"/>
-      <c r="I35" s="49">
-        <v>24.07</v>
-      </c>
-      <c r="J35" s="68" t="s">
-        <v>297</v>
-      </c>
-      <c r="K35" t="s">
-        <v>87</v>
-      </c>
-      <c r="L35" t="s">
-        <v>88</v>
-      </c>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-    </row>
-    <row r="36" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
-        <v>328</v>
-      </c>
-      <c r="B36" s="31">
-        <v>43825</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="57">
-        <v>4313</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="F36" s="34">
-        <v>11488</v>
-      </c>
-      <c r="G36" s="35">
-        <v>5.43</v>
-      </c>
-      <c r="H36" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="49">
-        <v>5.43</v>
-      </c>
-      <c r="J36" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="K36" t="s">
-        <v>87</v>
-      </c>
-      <c r="L36" t="s">
-        <v>88</v>
-      </c>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-    </row>
-    <row r="37" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
-        <v>329</v>
-      </c>
-      <c r="B37" s="31">
-        <v>43825</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="57">
-        <v>4313</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="F37" s="34">
-        <v>11488</v>
-      </c>
-      <c r="G37" s="35">
-        <v>18.29</v>
-      </c>
-      <c r="H37" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="49">
-        <v>18.29</v>
-      </c>
-      <c r="J37" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="K37" t="s">
-        <v>87</v>
-      </c>
-      <c r="L37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-    </row>
-    <row r="38" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
-        <v>330</v>
-      </c>
-      <c r="B38" s="31">
-        <v>43825</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="57">
-        <v>4313</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="F38" s="34">
-        <v>11488</v>
-      </c>
-      <c r="G38" s="35">
-        <v>16.47</v>
-      </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="49">
-        <v>16.47</v>
-      </c>
-      <c r="J38" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="K38" t="s">
-        <v>87</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="L38" s="59" t="s">
         <v>88</v>
       </c>
       <c r="M38" s="59"/>
@@ -18551,39 +18306,41 @@
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
     </row>
-    <row r="39" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
-        <v>331</v>
+    <row r="39" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>11</v>
       </c>
       <c r="B39" s="31">
-        <v>43825</v>
+        <v>43672</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D39" s="57">
-        <v>4313</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>318</v>
+        <v>876</v>
+      </c>
+      <c r="E39" s="57">
+        <v>11743</v>
       </c>
       <c r="F39" s="34">
-        <v>11488</v>
+        <v>5801</v>
       </c>
       <c r="G39" s="35">
-        <v>11.33</v>
-      </c>
-      <c r="H39" s="58"/>
-      <c r="I39" s="49">
-        <v>11.33</v>
-      </c>
-      <c r="J39" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="K39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="58">
+        <v>155</v>
+      </c>
+      <c r="I39" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="K39" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="59" t="s">
         <v>88</v>
       </c>
       <c r="M39" s="59"/>
@@ -18591,39 +18348,41 @@
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
     </row>
-    <row r="40" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
-        <v>332</v>
+    <row r="40" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38">
+        <v>12</v>
       </c>
       <c r="B40" s="31">
-        <v>43825</v>
+        <v>43672</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D40" s="57">
-        <v>4313</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>318</v>
+        <v>876</v>
+      </c>
+      <c r="E40" s="57">
+        <v>11744</v>
       </c>
       <c r="F40" s="34">
-        <v>11488</v>
+        <v>5801</v>
       </c>
       <c r="G40" s="35">
-        <v>183.61</v>
-      </c>
-      <c r="H40" s="58"/>
-      <c r="I40" s="49">
-        <v>183.61</v>
-      </c>
-      <c r="J40" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="K40" t="s">
+        <v>585</v>
+      </c>
+      <c r="H40" s="58">
+        <v>585</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="59" t="s">
         <v>88</v>
       </c>
       <c r="M40" s="59"/>
@@ -18631,41 +18390,41 @@
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
     </row>
-    <row r="41" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
-        <v>333</v>
+    <row r="41" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38">
+        <v>13</v>
       </c>
       <c r="B41" s="31">
-        <v>43825</v>
+        <v>43672</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D41" s="57">
-        <v>4313</v>
-      </c>
-      <c r="E41" s="57" t="s">
-        <v>318</v>
+        <v>876</v>
+      </c>
+      <c r="E41" s="57">
+        <v>11746</v>
       </c>
       <c r="F41" s="34">
-        <v>11488</v>
+        <v>5801</v>
       </c>
       <c r="G41" s="35">
-        <v>3.73</v>
-      </c>
-      <c r="H41" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="49">
-        <v>3.73</v>
-      </c>
-      <c r="J41" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="K41" t="s">
+        <v>405</v>
+      </c>
+      <c r="H41" s="58">
+        <v>405</v>
+      </c>
+      <c r="I41" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="59" t="s">
         <v>88</v>
       </c>
       <c r="M41" s="59"/>
@@ -18673,39 +18432,41 @@
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
     </row>
-    <row r="42" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
-        <v>334</v>
+    <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>14</v>
       </c>
       <c r="B42" s="31">
-        <v>43809</v>
+        <v>43672</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D42" s="57">
-        <v>3870</v>
+        <v>876</v>
       </c>
       <c r="E42" s="57">
-        <v>25132</v>
+        <v>15575</v>
       </c>
       <c r="F42" s="34">
-        <v>11489</v>
+        <v>5801</v>
       </c>
       <c r="G42" s="35">
-        <v>5.52</v>
-      </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="49">
-        <v>5.52</v>
-      </c>
-      <c r="J42" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="K42" t="s">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H42" s="58">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I42" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="K42" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="59" t="s">
         <v>88</v>
       </c>
       <c r="M42" s="59"/>
@@ -18714,38 +18475,40 @@
       <c r="P42" s="59"/>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
-        <v>335</v>
+      <c r="A43" s="38">
+        <v>15</v>
       </c>
       <c r="B43" s="31">
-        <v>43809</v>
+        <v>43705</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D43" s="57">
-        <v>3870</v>
+        <v>1026</v>
       </c>
       <c r="E43" s="57">
-        <v>25132</v>
+        <v>14253</v>
       </c>
       <c r="F43" s="34">
-        <v>11489</v>
+        <v>7167</v>
       </c>
       <c r="G43" s="35">
-        <v>6.51</v>
-      </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="49">
-        <v>6.51</v>
-      </c>
-      <c r="J43" s="55" t="s">
-        <v>326</v>
-      </c>
-      <c r="K43" t="s">
+        <v>3690.1</v>
+      </c>
+      <c r="H43" s="58">
+        <v>3690.1</v>
+      </c>
+      <c r="I43" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="K43" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="59" t="s">
         <v>88</v>
       </c>
       <c r="M43" s="59"/>
@@ -18754,38 +18517,40 @@
       <c r="P43" s="59"/>
     </row>
     <row r="44" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
-        <v>336</v>
+      <c r="A44" s="38">
+        <v>16</v>
       </c>
       <c r="B44" s="31">
-        <v>43809</v>
+        <v>43705</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D44" s="57">
-        <v>3870</v>
+        <v>1026</v>
       </c>
       <c r="E44" s="57">
-        <v>25132</v>
+        <v>14254</v>
       </c>
       <c r="F44" s="34">
-        <v>11489</v>
+        <v>7167</v>
       </c>
       <c r="G44" s="35">
-        <v>6.61</v>
-      </c>
-      <c r="H44" s="58"/>
-      <c r="I44" s="49">
-        <v>6.61</v>
-      </c>
-      <c r="J44" s="55" t="s">
-        <v>327</v>
-      </c>
-      <c r="K44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="58">
+        <v>155</v>
+      </c>
+      <c r="I44" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="K44" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="59" t="s">
         <v>88</v>
       </c>
       <c r="M44" s="59"/>
@@ -18793,39 +18558,41 @@
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
     </row>
-    <row r="45" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38">
-        <v>337</v>
+    <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>17</v>
       </c>
       <c r="B45" s="31">
-        <v>43809</v>
+        <v>43705</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D45" s="57">
-        <v>3870</v>
+        <v>1026</v>
       </c>
       <c r="E45" s="57">
-        <v>25132</v>
+        <v>14255</v>
       </c>
       <c r="F45" s="34">
-        <v>11489</v>
+        <v>7167</v>
       </c>
       <c r="G45" s="35">
-        <v>200.69</v>
-      </c>
-      <c r="H45" s="58"/>
-      <c r="I45" s="49">
-        <v>200.69</v>
-      </c>
-      <c r="J45" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="K45" t="s">
+        <v>585</v>
+      </c>
+      <c r="H45" s="58">
+        <v>585</v>
+      </c>
+      <c r="I45" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="59" t="s">
         <v>88</v>
       </c>
       <c r="M45" s="59"/>
@@ -18833,39 +18600,41 @@
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
     </row>
-    <row r="46" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
-        <v>338</v>
+    <row r="46" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="38">
+        <v>18</v>
       </c>
       <c r="B46" s="31">
-        <v>43809</v>
+        <v>43705</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D46" s="57">
-        <v>3870</v>
+        <v>1026</v>
       </c>
       <c r="E46" s="57">
-        <v>25132</v>
+        <v>14256</v>
       </c>
       <c r="F46" s="34">
-        <v>11489</v>
+        <v>7167</v>
       </c>
       <c r="G46" s="35">
-        <v>11.79</v>
-      </c>
-      <c r="H46" s="58"/>
-      <c r="I46" s="49">
-        <v>11.79</v>
-      </c>
-      <c r="J46" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="K46" t="s">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H46" s="58">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I46" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="K46" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="59" t="s">
         <v>88</v>
       </c>
       <c r="M46" s="59"/>
@@ -18873,39 +18642,41 @@
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
     </row>
-    <row r="47" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
-        <v>339</v>
+    <row r="47" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38">
+        <v>19</v>
       </c>
       <c r="B47" s="31">
-        <v>43809</v>
+        <v>43705</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D47" s="57">
-        <v>3870</v>
+        <v>1026</v>
       </c>
       <c r="E47" s="57">
-        <v>25132</v>
+        <v>14257</v>
       </c>
       <c r="F47" s="34">
-        <v>11489</v>
+        <v>7167</v>
       </c>
       <c r="G47" s="35">
-        <v>5.31</v>
-      </c>
-      <c r="H47" s="58"/>
-      <c r="I47" s="49">
-        <v>5.31</v>
-      </c>
-      <c r="J47" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="H47" s="58">
+        <v>405</v>
+      </c>
+      <c r="I47" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="59" t="s">
         <v>88</v>
       </c>
       <c r="M47" s="59"/>
@@ -18913,189 +18684,1424 @@
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
     </row>
-    <row r="48" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38">
-        <v>340</v>
-      </c>
-      <c r="B48" s="31">
+    <row r="48" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="145" t="s">
+        <v>381</v>
+      </c>
+      <c r="B48" s="146"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="138">
+        <f>SUM(G37:G47)</f>
+        <v>15355.859999999999</v>
+      </c>
+      <c r="H48" s="138">
+        <f t="shared" ref="H48" si="2">SUM(H37:H47)</f>
+        <v>15015</v>
+      </c>
+      <c r="I48" s="138">
+        <f>SUM(I37:I47)</f>
+        <v>340.86</v>
+      </c>
+      <c r="J48" s="138"/>
+      <c r="K48" s="133"/>
+    </row>
+    <row r="49" spans="1:16" s="143" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="140"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="140"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="141"/>
+      <c r="K49" s="142"/>
+    </row>
+    <row r="50" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="148"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+    </row>
+    <row r="51" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A51" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="150"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="150"/>
+    </row>
+    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="152"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
+    </row>
+    <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="163"/>
+      <c r="C56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="132"/>
+    </row>
+    <row r="57" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="163"/>
+      <c r="C57" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="132"/>
+    </row>
+    <row r="58" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="165"/>
+      <c r="C58" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="156"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="161"/>
+      <c r="I60" s="161"/>
+      <c r="J60" s="162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="155"/>
+      <c r="B61" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="166"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="170"/>
+      <c r="H61" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" s="155"/>
+      <c r="K61" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="145" t="s">
+        <v>380</v>
+      </c>
+      <c r="B62" s="146"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="138">
+        <f>G48</f>
+        <v>15355.859999999999</v>
+      </c>
+      <c r="H62" s="138">
+        <f t="shared" ref="H62:I62" si="3">H48</f>
+        <v>15015</v>
+      </c>
+      <c r="I62" s="138">
+        <f t="shared" si="3"/>
+        <v>340.86</v>
+      </c>
+      <c r="J62" s="138"/>
+      <c r="K62" s="133"/>
+    </row>
+    <row r="63" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <v>20</v>
+      </c>
+      <c r="B63" s="31">
+        <v>43829</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="57">
+        <v>4457</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="F63" s="34">
+        <v>7662</v>
+      </c>
+      <c r="G63" s="35">
+        <v>1446.66</v>
+      </c>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58">
+        <v>1446.66</v>
+      </c>
+      <c r="J63" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="K63" t="s">
+        <v>87</v>
+      </c>
+      <c r="L63" t="s">
+        <v>88</v>
+      </c>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+    </row>
+    <row r="64" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="38">
+        <v>21</v>
+      </c>
+      <c r="B64" s="31">
+        <v>43829</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="57">
+        <v>4458</v>
+      </c>
+      <c r="E64" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="F64" s="34">
+        <v>7662</v>
+      </c>
+      <c r="G64" s="35">
+        <v>456.84</v>
+      </c>
+      <c r="H64" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" s="58">
+        <v>456.84</v>
+      </c>
+      <c r="J64" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="K64" t="s">
+        <v>87</v>
+      </c>
+      <c r="L64" t="s">
+        <v>88</v>
+      </c>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+    </row>
+    <row r="65" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="38">
+        <v>22</v>
+      </c>
+      <c r="B65" s="31">
+        <v>43749</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="57">
+        <v>2843</v>
+      </c>
+      <c r="E65" s="57">
+        <v>18312</v>
+      </c>
+      <c r="F65" s="34">
+        <v>8689</v>
+      </c>
+      <c r="G65" s="35">
+        <v>24.07</v>
+      </c>
+      <c r="H65" s="58"/>
+      <c r="I65" s="49">
+        <v>24.07</v>
+      </c>
+      <c r="J65" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="K65" t="s">
+        <v>87</v>
+      </c>
+      <c r="L65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+    </row>
+    <row r="66" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
+        <v>23</v>
+      </c>
+      <c r="B66" s="31">
+        <v>43825</v>
+      </c>
+      <c r="C66" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="57">
+        <v>4313</v>
+      </c>
+      <c r="E66" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="F66" s="34">
+        <v>11488</v>
+      </c>
+      <c r="G66" s="35">
+        <v>5.43</v>
+      </c>
+      <c r="H66" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" s="49">
+        <v>5.43</v>
+      </c>
+      <c r="J66" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="K66" t="s">
+        <v>87</v>
+      </c>
+      <c r="L66" t="s">
+        <v>88</v>
+      </c>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="59"/>
+    </row>
+    <row r="67" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="38">
+        <v>24</v>
+      </c>
+      <c r="B67" s="31">
+        <v>43825</v>
+      </c>
+      <c r="C67" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="57">
+        <v>4313</v>
+      </c>
+      <c r="E67" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="F67" s="34">
+        <v>11488</v>
+      </c>
+      <c r="G67" s="35">
+        <v>18.29</v>
+      </c>
+      <c r="H67" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" s="49">
+        <v>18.29</v>
+      </c>
+      <c r="J67" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="K67" t="s">
+        <v>87</v>
+      </c>
+      <c r="L67" t="s">
+        <v>88</v>
+      </c>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+    </row>
+    <row r="68" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38">
+        <v>25</v>
+      </c>
+      <c r="B68" s="31">
+        <v>43825</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="57">
+        <v>4313</v>
+      </c>
+      <c r="E68" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="34">
+        <v>11488</v>
+      </c>
+      <c r="G68" s="35">
+        <v>16.47</v>
+      </c>
+      <c r="H68" s="58"/>
+      <c r="I68" s="49">
+        <v>16.47</v>
+      </c>
+      <c r="J68" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="K68" t="s">
+        <v>87</v>
+      </c>
+      <c r="L68" t="s">
+        <v>88</v>
+      </c>
+      <c r="M68" s="59"/>
+      <c r="N68" s="59"/>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
+    </row>
+    <row r="69" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="30">
+        <v>26</v>
+      </c>
+      <c r="B69" s="31">
+        <v>43825</v>
+      </c>
+      <c r="C69" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="57">
+        <v>4313</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="F69" s="34">
+        <v>11488</v>
+      </c>
+      <c r="G69" s="35">
+        <v>11.33</v>
+      </c>
+      <c r="H69" s="58"/>
+      <c r="I69" s="49">
+        <v>11.33</v>
+      </c>
+      <c r="J69" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="K69" t="s">
+        <v>87</v>
+      </c>
+      <c r="L69" t="s">
+        <v>88</v>
+      </c>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+    </row>
+    <row r="70" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="38">
+        <v>27</v>
+      </c>
+      <c r="B70" s="31">
+        <v>43825</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="57">
+        <v>4313</v>
+      </c>
+      <c r="E70" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="F70" s="34">
+        <v>11488</v>
+      </c>
+      <c r="G70" s="35">
+        <v>183.61</v>
+      </c>
+      <c r="H70" s="58"/>
+      <c r="I70" s="49">
+        <v>183.61</v>
+      </c>
+      <c r="J70" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="K70" t="s">
+        <v>87</v>
+      </c>
+      <c r="L70" t="s">
+        <v>88</v>
+      </c>
+      <c r="M70" s="59"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="59"/>
+    </row>
+    <row r="71" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="38">
+        <v>28</v>
+      </c>
+      <c r="B71" s="31">
+        <v>43825</v>
+      </c>
+      <c r="C71" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="57">
+        <v>4313</v>
+      </c>
+      <c r="E71" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="F71" s="34">
+        <v>11488</v>
+      </c>
+      <c r="G71" s="35">
+        <v>3.73</v>
+      </c>
+      <c r="H71" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" s="49">
+        <v>3.73</v>
+      </c>
+      <c r="J71" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="K71" t="s">
+        <v>87</v>
+      </c>
+      <c r="L71" t="s">
+        <v>88</v>
+      </c>
+      <c r="M71" s="59"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
+    </row>
+    <row r="72" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="145" t="s">
+        <v>381</v>
+      </c>
+      <c r="B72" s="146"/>
+      <c r="C72" s="146"/>
+      <c r="D72" s="146"/>
+      <c r="E72" s="146"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="138">
+        <f>SUM(G62:G71)</f>
+        <v>17522.290000000005</v>
+      </c>
+      <c r="H72" s="138">
+        <f t="shared" ref="H72:I72" si="4">SUM(H62:H71)</f>
+        <v>15015</v>
+      </c>
+      <c r="I72" s="138">
+        <f t="shared" si="4"/>
+        <v>2507.29</v>
+      </c>
+      <c r="J72" s="138"/>
+      <c r="K72" s="133"/>
+    </row>
+    <row r="73" spans="1:16" s="143" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="140"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="141"/>
+      <c r="H73" s="141"/>
+      <c r="I73" s="141"/>
+      <c r="J73" s="141"/>
+      <c r="K73" s="142"/>
+    </row>
+    <row r="74" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="148"/>
+      <c r="C74" s="148"/>
+      <c r="D74" s="149"/>
+      <c r="E74" s="148"/>
+      <c r="F74" s="148"/>
+      <c r="G74" s="148"/>
+      <c r="H74" s="148"/>
+      <c r="I74" s="148"/>
+      <c r="J74" s="148"/>
+    </row>
+    <row r="75" spans="1:16" ht="27" x14ac:dyDescent="0.25">
+      <c r="A75" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="150"/>
+      <c r="C75" s="150"/>
+      <c r="D75" s="151"/>
+      <c r="E75" s="150"/>
+      <c r="F75" s="150"/>
+      <c r="G75" s="150"/>
+      <c r="H75" s="150"/>
+      <c r="I75" s="150"/>
+      <c r="J75" s="150"/>
+    </row>
+    <row r="76" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="152"/>
+      <c r="C77" s="152"/>
+      <c r="D77" s="153"/>
+      <c r="E77" s="152"/>
+      <c r="F77" s="152"/>
+      <c r="G77" s="152"/>
+      <c r="H77" s="152"/>
+      <c r="I77" s="152"/>
+      <c r="J77" s="152"/>
+    </row>
+    <row r="78" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="163"/>
+      <c r="C80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="E80" s="164"/>
+      <c r="F80" s="164"/>
+      <c r="G80" s="164"/>
+      <c r="H80" s="164"/>
+      <c r="I80" s="164"/>
+      <c r="J80" s="164"/>
+      <c r="K80" s="132"/>
+    </row>
+    <row r="81" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="163"/>
+      <c r="C81" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="164" t="s">
+        <v>377</v>
+      </c>
+      <c r="E81" s="164"/>
+      <c r="F81" s="164"/>
+      <c r="G81" s="164"/>
+      <c r="H81" s="164"/>
+      <c r="I81" s="164"/>
+      <c r="J81" s="164"/>
+      <c r="K81" s="132"/>
+    </row>
+    <row r="82" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="165"/>
+      <c r="C82" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="156"/>
+      <c r="D84" s="157"/>
+      <c r="E84" s="158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="161"/>
+      <c r="I84" s="161"/>
+      <c r="J84" s="162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="155"/>
+      <c r="B85" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="166"/>
+      <c r="F85" s="168"/>
+      <c r="G85" s="170"/>
+      <c r="H85" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="155"/>
+      <c r="K85" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L85" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="145" t="s">
+        <v>380</v>
+      </c>
+      <c r="B86" s="146"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="146"/>
+      <c r="F86" s="147"/>
+      <c r="G86" s="138">
+        <f>G72</f>
+        <v>17522.290000000005</v>
+      </c>
+      <c r="H86" s="138">
+        <f t="shared" ref="H86:I86" si="5">H72</f>
+        <v>15015</v>
+      </c>
+      <c r="I86" s="138">
+        <f t="shared" si="5"/>
+        <v>2507.29</v>
+      </c>
+      <c r="J86" s="138"/>
+      <c r="K86" s="133"/>
+    </row>
+    <row r="87" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
+        <v>29</v>
+      </c>
+      <c r="B87" s="31">
         <v>43809</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C87" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D87" s="57">
         <v>3870</v>
       </c>
-      <c r="E48" s="57">
+      <c r="E87" s="57">
         <v>25132</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F87" s="34">
         <v>11489</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G87" s="35">
+        <v>5.52</v>
+      </c>
+      <c r="H87" s="58"/>
+      <c r="I87" s="49">
+        <v>5.52</v>
+      </c>
+      <c r="J87" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="K87" t="s">
+        <v>87</v>
+      </c>
+      <c r="L87" t="s">
+        <v>88</v>
+      </c>
+      <c r="M87" s="59"/>
+      <c r="N87" s="59"/>
+      <c r="O87" s="59"/>
+      <c r="P87" s="59"/>
+    </row>
+    <row r="88" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="38">
+        <v>30</v>
+      </c>
+      <c r="B88" s="31">
+        <v>43809</v>
+      </c>
+      <c r="C88" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="57">
+        <v>3870</v>
+      </c>
+      <c r="E88" s="57">
+        <v>25132</v>
+      </c>
+      <c r="F88" s="34">
+        <v>11489</v>
+      </c>
+      <c r="G88" s="35">
+        <v>6.51</v>
+      </c>
+      <c r="H88" s="58"/>
+      <c r="I88" s="49">
+        <v>6.51</v>
+      </c>
+      <c r="J88" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="K88" t="s">
+        <v>87</v>
+      </c>
+      <c r="L88" t="s">
+        <v>88</v>
+      </c>
+      <c r="M88" s="59"/>
+      <c r="N88" s="59"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="59"/>
+    </row>
+    <row r="89" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="38">
+        <v>31</v>
+      </c>
+      <c r="B89" s="31">
+        <v>43809</v>
+      </c>
+      <c r="C89" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="57">
+        <v>3870</v>
+      </c>
+      <c r="E89" s="57">
+        <v>25132</v>
+      </c>
+      <c r="F89" s="34">
+        <v>11489</v>
+      </c>
+      <c r="G89" s="35">
+        <v>6.61</v>
+      </c>
+      <c r="H89" s="58"/>
+      <c r="I89" s="49">
+        <v>6.61</v>
+      </c>
+      <c r="J89" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="K89" t="s">
+        <v>87</v>
+      </c>
+      <c r="L89" t="s">
+        <v>88</v>
+      </c>
+      <c r="M89" s="59"/>
+      <c r="N89" s="59"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
+    </row>
+    <row r="90" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="30">
+        <v>32</v>
+      </c>
+      <c r="B90" s="31">
+        <v>43809</v>
+      </c>
+      <c r="C90" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="57">
+        <v>3870</v>
+      </c>
+      <c r="E90" s="57">
+        <v>25132</v>
+      </c>
+      <c r="F90" s="34">
+        <v>11489</v>
+      </c>
+      <c r="G90" s="35">
+        <v>200.69</v>
+      </c>
+      <c r="H90" s="58"/>
+      <c r="I90" s="49">
+        <v>200.69</v>
+      </c>
+      <c r="J90" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="K90" t="s">
+        <v>87</v>
+      </c>
+      <c r="L90" t="s">
+        <v>88</v>
+      </c>
+      <c r="M90" s="59"/>
+      <c r="N90" s="59"/>
+      <c r="O90" s="59"/>
+      <c r="P90" s="59"/>
+    </row>
+    <row r="91" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="38">
+        <v>33</v>
+      </c>
+      <c r="B91" s="31">
+        <v>43809</v>
+      </c>
+      <c r="C91" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="57">
+        <v>3870</v>
+      </c>
+      <c r="E91" s="57">
+        <v>25132</v>
+      </c>
+      <c r="F91" s="34">
+        <v>11489</v>
+      </c>
+      <c r="G91" s="35">
+        <v>11.79</v>
+      </c>
+      <c r="H91" s="58"/>
+      <c r="I91" s="49">
+        <v>11.79</v>
+      </c>
+      <c r="J91" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="K91" t="s">
+        <v>87</v>
+      </c>
+      <c r="L91" t="s">
+        <v>88</v>
+      </c>
+      <c r="M91" s="59"/>
+      <c r="N91" s="59"/>
+      <c r="O91" s="59"/>
+      <c r="P91" s="59"/>
+    </row>
+    <row r="92" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="38">
+        <v>34</v>
+      </c>
+      <c r="B92" s="31">
+        <v>43809</v>
+      </c>
+      <c r="C92" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="57">
+        <v>3870</v>
+      </c>
+      <c r="E92" s="57">
+        <v>25132</v>
+      </c>
+      <c r="F92" s="34">
+        <v>11489</v>
+      </c>
+      <c r="G92" s="35">
+        <v>5.31</v>
+      </c>
+      <c r="H92" s="58"/>
+      <c r="I92" s="49">
+        <v>5.31</v>
+      </c>
+      <c r="J92" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="K92" t="s">
+        <v>87</v>
+      </c>
+      <c r="L92" t="s">
+        <v>88</v>
+      </c>
+      <c r="M92" s="59"/>
+      <c r="N92" s="59"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
+    </row>
+    <row r="93" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="30">
+        <v>35</v>
+      </c>
+      <c r="B93" s="31">
+        <v>43809</v>
+      </c>
+      <c r="C93" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="57">
+        <v>3870</v>
+      </c>
+      <c r="E93" s="57">
+        <v>25132</v>
+      </c>
+      <c r="F93" s="34">
+        <v>11489</v>
+      </c>
+      <c r="G93" s="35">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H48" s="58"/>
-      <c r="I48" s="49">
+      <c r="H93" s="58"/>
+      <c r="I93" s="49">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J48" s="55" t="s">
+      <c r="J93" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K93" t="s">
         <v>87</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L93" t="s">
         <v>88</v>
       </c>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-    </row>
-    <row r="49" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30">
-        <v>341</v>
-      </c>
-      <c r="B49" s="31">
+      <c r="M93" s="59"/>
+      <c r="N93" s="59"/>
+      <c r="O93" s="59"/>
+      <c r="P93" s="59"/>
+    </row>
+    <row r="94" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="38">
+        <v>36</v>
+      </c>
+      <c r="B94" s="31">
         <v>43809</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C94" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D94" s="57">
         <v>3870</v>
       </c>
-      <c r="E49" s="57">
+      <c r="E94" s="57">
         <v>25132</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F94" s="34">
         <v>11489</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G94" s="35">
         <v>5.07</v>
       </c>
-      <c r="H49" s="58"/>
-      <c r="I49" s="49">
+      <c r="H94" s="58"/>
+      <c r="I94" s="49">
         <v>5.07</v>
       </c>
-      <c r="J49" s="55" t="s">
+      <c r="J94" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K94" t="s">
         <v>87</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L94" t="s">
         <v>88</v>
       </c>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-    </row>
-    <row r="50" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30">
-        <v>342</v>
-      </c>
-      <c r="B50" s="31">
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+    </row>
+    <row r="95" spans="1:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="38">
+        <v>37</v>
+      </c>
+      <c r="B95" s="31">
         <v>43809</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C95" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D95" s="57">
         <v>3870</v>
       </c>
-      <c r="E50" s="57">
+      <c r="E95" s="57">
         <v>25132</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F95" s="34">
         <v>11489</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G95" s="35">
         <v>2.83</v>
       </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="49">
+      <c r="H95" s="58"/>
+      <c r="I95" s="49">
         <v>2.83</v>
       </c>
-      <c r="J50" s="55" t="s">
+      <c r="J95" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K95" t="s">
         <v>87</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L95" t="s">
         <v>88</v>
       </c>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="I51" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="M95" s="59"/>
+      <c r="N95" s="59"/>
+      <c r="O95" s="59"/>
+      <c r="P95" s="59"/>
+    </row>
+    <row r="96" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="145" t="s">
+        <v>381</v>
+      </c>
+      <c r="B96" s="146"/>
+      <c r="C96" s="146"/>
+      <c r="D96" s="146"/>
+      <c r="E96" s="146"/>
+      <c r="F96" s="147"/>
+      <c r="G96" s="138">
+        <f>SUM(G86:G95)</f>
+        <v>17767.760000000006</v>
+      </c>
+      <c r="H96" s="138">
+        <f t="shared" ref="H96:I96" si="6">SUM(H86:H95)</f>
+        <v>15015</v>
+      </c>
+      <c r="I96" s="138">
+        <f t="shared" si="6"/>
+        <v>2752.76</v>
+      </c>
+      <c r="J96" s="138"/>
+      <c r="K96" s="133"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="70"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="59"/>
+      <c r="N97" s="59"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="59"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+      <c r="D98" s="2"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+      <c r="D99" s="2"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="144" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+      <c r="D100" s="2"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+      <c r="D101" s="2"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+      <c r="D102" s="2"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="E13:J13"/>
-  <mergeCells count="6">
+  <mergeCells count="67">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:J80"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:J85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="23" max="9" man="1"/>
+    <brk id="72" max="9" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -19124,34 +20130,34 @@
       <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="145"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="146"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="172"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -19167,19 +20173,19 @@
       <c r="K4" s="83"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="147"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="173"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -19278,14 +20284,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -19295,17 +20301,17 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="142" t="s">
+      <c r="H12" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -30978,34 +31984,34 @@
       <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="145"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="146"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="172"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -31021,19 +32027,19 @@
       <c r="K4" s="83"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="147"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="173"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -31132,14 +32138,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -31149,17 +32155,17 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="142" t="s">
+      <c r="H12" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -31820,36 +32826,36 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
     </row>
     <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -31866,20 +32872,20 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -31984,14 +32990,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -32001,18 +33007,18 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="142" t="s">
+      <c r="H12" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="148"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="169"/>
       <c r="L12" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -34584,14 +35590,14 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="127" t="s">
+      <c r="A76" s="145" t="s">
         <v>344</v>
       </c>
-      <c r="B76" s="128"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="128"/>
-      <c r="E76" s="128"/>
-      <c r="F76" s="129"/>
+      <c r="B76" s="146"/>
+      <c r="C76" s="146"/>
+      <c r="D76" s="146"/>
+      <c r="E76" s="146"/>
+      <c r="F76" s="147"/>
       <c r="G76" s="78">
         <f>SUM(G14:G75)</f>
         <v>143877.60999999999</v>
@@ -34676,30 +35682,30 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
     </row>
     <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -34713,17 +35719,17 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -34810,21 +35816,21 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="150" t="s">
+      <c r="G12" s="128" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="124" t="s">
@@ -34835,7 +35841,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -34846,8 +35852,8 @@
         <v>20</v>
       </c>
       <c r="E13" s="89"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="152"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="101" t="s">
         <v>21</v>
       </c>
@@ -36204,14 +37210,14 @@
       <c r="K55" s="67"/>
     </row>
     <row r="56" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="127" t="s">
+      <c r="A56" s="145" t="s">
         <v>344</v>
       </c>
-      <c r="B56" s="128"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="129"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="147"/>
       <c r="G56" s="78">
         <f>SUM(G14:G55)</f>
         <v>121522.06</v>
@@ -36278,7 +37284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -36295,34 +37301,34 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -36338,19 +37344,19 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -36449,14 +37455,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -36466,15 +37472,15 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="148"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="169"/>
       <c r="K12" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2019.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2019.xlsx
@@ -19,8 +19,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2.6.7.1.6.(1.2.3)'!$E$13:$K$317</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.6.7.1.6.1END'!$E$13:$I$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2019-END.'!$E$13:$L$76</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SEPERVISION-END'!$E$13:$K$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SEPERVISION-END'!$E$12:$K$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SUPERVISION-RO'!$E$13:$J$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'SEPERVISION-END'!$A$1:$K$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'SUPERVISION-RO'!$A$1:$J$100</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="383">
   <si>
     <t>TARJETA DE LIQUIDACION FINANCIERA</t>
   </si>
@@ -1322,7 +1323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1689,12 +1690,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2106,6 +2133,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="16" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2163,14 +2196,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2178,11 +2214,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2192,6 +2225,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2498,38 +2552,38 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
     </row>
     <row r="3" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -2547,21 +2601,21 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="152"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2672,15 +2726,15 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="158" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="160" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -2689,19 +2743,19 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="160" t="s">
+      <c r="H12" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="162" t="s">
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="164" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -2711,7 +2765,7 @@
       <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="159"/>
+      <c r="E13" s="161"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28" t="s">
@@ -2729,7 +2783,7 @@
       <c r="L13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="155"/>
+      <c r="M13" s="157"/>
       <c r="N13" s="29" t="s">
         <v>26</v>
       </c>
@@ -17316,14 +17370,14 @@
       <c r="S353" s="59"/>
     </row>
     <row r="354" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="145" t="s">
+      <c r="A354" s="147" t="s">
         <v>344</v>
       </c>
-      <c r="B354" s="146"/>
-      <c r="C354" s="146"/>
-      <c r="D354" s="146"/>
-      <c r="E354" s="146"/>
-      <c r="F354" s="147"/>
+      <c r="B354" s="148"/>
+      <c r="C354" s="148"/>
+      <c r="D354" s="148"/>
+      <c r="E354" s="148"/>
+      <c r="F354" s="149"/>
       <c r="G354" s="78">
         <f t="shared" ref="G354:L354" si="8">SUM(G14:G353)</f>
         <v>577235.12999999942</v>
@@ -17407,12 +17461,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A84" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
@@ -17428,32 +17484,32 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
     </row>
     <row r="3" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -17468,18 +17524,18 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -17512,48 +17568,48 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="163"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="167" t="s">
         <v>376</v>
       </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
       <c r="K8" s="132"/>
     </row>
     <row r="9" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="163"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="167" t="s">
         <v>377</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
       <c r="K9" s="132"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="165"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="131" t="s">
         <v>10</v>
       </c>
@@ -17583,31 +17639,31 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="158" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="167" t="s">
+      <c r="F12" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="169" t="s">
+      <c r="G12" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162" t="s">
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -17617,16 +17673,16 @@
       <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="170"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="169"/>
       <c r="H13" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="155"/>
+      <c r="J13" s="157"/>
       <c r="K13" s="29" t="s">
         <v>26</v>
       </c>
@@ -17997,14 +18053,14 @@
       <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="147" t="s">
         <v>344</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="147"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="149"/>
       <c r="G23" s="138">
         <f>SUM(G14:G22)</f>
         <v>5245.86</v>
@@ -18034,32 +18090,32 @@
       <c r="K24" s="139"/>
     </row>
     <row r="25" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
     </row>
     <row r="26" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -18074,18 +18130,18 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="152" t="s">
+      <c r="A28" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
     </row>
     <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -18118,48 +18174,48 @@
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="163"/>
+      <c r="B31" s="165"/>
       <c r="C31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="164" t="s">
+      <c r="D31" s="167" t="s">
         <v>376</v>
       </c>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
       <c r="K31" s="132"/>
     </row>
     <row r="32" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="163" t="s">
+      <c r="A32" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="163"/>
+      <c r="B32" s="165"/>
       <c r="C32" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="164" t="s">
+      <c r="D32" s="167" t="s">
         <v>377</v>
       </c>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="164"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
       <c r="K32" s="132"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="165" t="s">
+      <c r="A33" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="165"/>
+      <c r="B33" s="166"/>
       <c r="C33" s="131" t="s">
         <v>10</v>
       </c>
@@ -18189,31 +18245,31 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="154" t="s">
+      <c r="A35" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="156" t="s">
+      <c r="B35" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="156"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="158" t="s">
+      <c r="C35" s="158"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="167" t="s">
+      <c r="F35" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="169" t="s">
+      <c r="G35" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="161"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="162" t="s">
+      <c r="H35" s="163"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="164" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="155"/>
+      <c r="A36" s="157"/>
       <c r="B36" s="24" t="s">
         <v>18</v>
       </c>
@@ -18223,16 +18279,16 @@
       <c r="D36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="166"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="170"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="169"/>
       <c r="H36" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="155"/>
+      <c r="J36" s="157"/>
       <c r="K36" s="29" t="s">
         <v>26</v>
       </c>
@@ -18241,14 +18297,14 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="147" t="s">
         <v>380</v>
       </c>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="147"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="149"/>
       <c r="G37" s="138">
         <f>G23</f>
         <v>5245.86</v>
@@ -18685,14 +18741,14 @@
       <c r="P47" s="59"/>
     </row>
     <row r="48" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="145" t="s">
+      <c r="A48" s="147" t="s">
         <v>381</v>
       </c>
-      <c r="B48" s="146"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="147"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="149"/>
       <c r="G48" s="138">
         <f>SUM(G37:G47)</f>
         <v>15355.859999999999</v>
@@ -18722,32 +18778,32 @@
       <c r="K49" s="142"/>
     </row>
     <row r="50" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="148" t="s">
+      <c r="A50" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="148"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="149"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="148"/>
+      <c r="B50" s="150"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="150"/>
     </row>
     <row r="51" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A51" s="150" t="s">
+      <c r="A51" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="150"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="152"/>
     </row>
     <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -18762,18 +18818,18 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="152" t="s">
+      <c r="A53" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="152"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="152"/>
-      <c r="F53" s="152"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="152"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="154"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="154"/>
     </row>
     <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -18806,48 +18862,48 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="163"/>
+      <c r="B56" s="165"/>
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="164" t="s">
+      <c r="D56" s="167" t="s">
         <v>376</v>
       </c>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
+      <c r="E56" s="167"/>
+      <c r="F56" s="167"/>
+      <c r="G56" s="167"/>
+      <c r="H56" s="167"/>
+      <c r="I56" s="167"/>
+      <c r="J56" s="167"/>
       <c r="K56" s="132"/>
     </row>
     <row r="57" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="163" t="s">
+      <c r="A57" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="163"/>
+      <c r="B57" s="165"/>
       <c r="C57" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="164" t="s">
+      <c r="D57" s="167" t="s">
         <v>377</v>
       </c>
-      <c r="E57" s="164"/>
-      <c r="F57" s="164"/>
-      <c r="G57" s="164"/>
-      <c r="H57" s="164"/>
-      <c r="I57" s="164"/>
-      <c r="J57" s="164"/>
+      <c r="E57" s="167"/>
+      <c r="F57" s="167"/>
+      <c r="G57" s="167"/>
+      <c r="H57" s="167"/>
+      <c r="I57" s="167"/>
+      <c r="J57" s="167"/>
       <c r="K57" s="132"/>
     </row>
     <row r="58" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="165" t="s">
+      <c r="A58" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="165"/>
+      <c r="B58" s="166"/>
       <c r="C58" s="131" t="s">
         <v>10</v>
       </c>
@@ -18877,31 +18933,31 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="154" t="s">
+      <c r="A60" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="156" t="s">
+      <c r="B60" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="156"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="158" t="s">
+      <c r="C60" s="158"/>
+      <c r="D60" s="159"/>
+      <c r="E60" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="167" t="s">
+      <c r="F60" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="169" t="s">
+      <c r="G60" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="161"/>
-      <c r="I60" s="161"/>
-      <c r="J60" s="162" t="s">
+      <c r="H60" s="163"/>
+      <c r="I60" s="163"/>
+      <c r="J60" s="164" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="155"/>
+      <c r="A61" s="157"/>
       <c r="B61" s="24" t="s">
         <v>18</v>
       </c>
@@ -18911,16 +18967,16 @@
       <c r="D61" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="166"/>
-      <c r="F61" s="168"/>
-      <c r="G61" s="170"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="169"/>
       <c r="H61" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="155"/>
+      <c r="J61" s="157"/>
       <c r="K61" s="29" t="s">
         <v>26</v>
       </c>
@@ -18929,14 +18985,14 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="145" t="s">
+      <c r="A62" s="147" t="s">
         <v>380</v>
       </c>
-      <c r="B62" s="146"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="147"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="149"/>
       <c r="G62" s="138">
         <f>G48</f>
         <v>15355.859999999999</v>
@@ -19321,14 +19377,14 @@
       <c r="P71" s="59"/>
     </row>
     <row r="72" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="145" t="s">
+      <c r="A72" s="147" t="s">
         <v>381</v>
       </c>
-      <c r="B72" s="146"/>
-      <c r="C72" s="146"/>
-      <c r="D72" s="146"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="147"/>
+      <c r="B72" s="148"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="148"/>
+      <c r="E72" s="148"/>
+      <c r="F72" s="149"/>
       <c r="G72" s="138">
         <f>SUM(G62:G71)</f>
         <v>17522.290000000005</v>
@@ -19358,32 +19414,32 @@
       <c r="K73" s="142"/>
     </row>
     <row r="74" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="148" t="s">
+      <c r="A74" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="148"/>
-      <c r="C74" s="148"/>
-      <c r="D74" s="149"/>
-      <c r="E74" s="148"/>
-      <c r="F74" s="148"/>
-      <c r="G74" s="148"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="148"/>
+      <c r="B74" s="150"/>
+      <c r="C74" s="150"/>
+      <c r="D74" s="151"/>
+      <c r="E74" s="150"/>
+      <c r="F74" s="150"/>
+      <c r="G74" s="150"/>
+      <c r="H74" s="150"/>
+      <c r="I74" s="150"/>
+      <c r="J74" s="150"/>
     </row>
     <row r="75" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A75" s="150" t="s">
+      <c r="A75" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="150"/>
-      <c r="C75" s="150"/>
-      <c r="D75" s="151"/>
-      <c r="E75" s="150"/>
-      <c r="F75" s="150"/>
-      <c r="G75" s="150"/>
-      <c r="H75" s="150"/>
-      <c r="I75" s="150"/>
-      <c r="J75" s="150"/>
+      <c r="B75" s="152"/>
+      <c r="C75" s="152"/>
+      <c r="D75" s="153"/>
+      <c r="E75" s="152"/>
+      <c r="F75" s="152"/>
+      <c r="G75" s="152"/>
+      <c r="H75" s="152"/>
+      <c r="I75" s="152"/>
+      <c r="J75" s="152"/>
     </row>
     <row r="76" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
@@ -19398,18 +19454,18 @@
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="152" t="s">
+      <c r="A77" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="152"/>
-      <c r="C77" s="152"/>
-      <c r="D77" s="153"/>
-      <c r="E77" s="152"/>
-      <c r="F77" s="152"/>
-      <c r="G77" s="152"/>
-      <c r="H77" s="152"/>
-      <c r="I77" s="152"/>
-      <c r="J77" s="152"/>
+      <c r="B77" s="154"/>
+      <c r="C77" s="154"/>
+      <c r="D77" s="155"/>
+      <c r="E77" s="154"/>
+      <c r="F77" s="154"/>
+      <c r="G77" s="154"/>
+      <c r="H77" s="154"/>
+      <c r="I77" s="154"/>
+      <c r="J77" s="154"/>
     </row>
     <row r="78" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -19442,48 +19498,48 @@
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="163" t="s">
+      <c r="A80" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="163"/>
+      <c r="B80" s="165"/>
       <c r="C80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="164" t="s">
+      <c r="D80" s="167" t="s">
         <v>376</v>
       </c>
-      <c r="E80" s="164"/>
-      <c r="F80" s="164"/>
-      <c r="G80" s="164"/>
-      <c r="H80" s="164"/>
-      <c r="I80" s="164"/>
-      <c r="J80" s="164"/>
+      <c r="E80" s="167"/>
+      <c r="F80" s="167"/>
+      <c r="G80" s="167"/>
+      <c r="H80" s="167"/>
+      <c r="I80" s="167"/>
+      <c r="J80" s="167"/>
       <c r="K80" s="132"/>
     </row>
     <row r="81" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="163" t="s">
+      <c r="A81" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="163"/>
+      <c r="B81" s="165"/>
       <c r="C81" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="164" t="s">
+      <c r="D81" s="167" t="s">
         <v>377</v>
       </c>
-      <c r="E81" s="164"/>
-      <c r="F81" s="164"/>
-      <c r="G81" s="164"/>
-      <c r="H81" s="164"/>
-      <c r="I81" s="164"/>
-      <c r="J81" s="164"/>
+      <c r="E81" s="167"/>
+      <c r="F81" s="167"/>
+      <c r="G81" s="167"/>
+      <c r="H81" s="167"/>
+      <c r="I81" s="167"/>
+      <c r="J81" s="167"/>
       <c r="K81" s="132"/>
     </row>
     <row r="82" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="165" t="s">
+      <c r="A82" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="165"/>
+      <c r="B82" s="166"/>
       <c r="C82" s="131" t="s">
         <v>10</v>
       </c>
@@ -19513,31 +19569,31 @@
       </c>
     </row>
     <row r="84" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="154" t="s">
+      <c r="A84" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="156" t="s">
+      <c r="B84" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="156"/>
-      <c r="D84" s="157"/>
-      <c r="E84" s="158" t="s">
+      <c r="C84" s="158"/>
+      <c r="D84" s="159"/>
+      <c r="E84" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="167" t="s">
+      <c r="F84" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="169" t="s">
+      <c r="G84" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="161"/>
-      <c r="I84" s="161"/>
-      <c r="J84" s="162" t="s">
+      <c r="H84" s="163"/>
+      <c r="I84" s="163"/>
+      <c r="J84" s="164" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="155"/>
+      <c r="A85" s="157"/>
       <c r="B85" s="24" t="s">
         <v>18</v>
       </c>
@@ -19547,16 +19603,16 @@
       <c r="D85" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="166"/>
-      <c r="F85" s="168"/>
-      <c r="G85" s="170"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="171"/>
+      <c r="G85" s="169"/>
       <c r="H85" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J85" s="155"/>
+      <c r="J85" s="157"/>
       <c r="K85" s="29" t="s">
         <v>26</v>
       </c>
@@ -19565,14 +19621,14 @@
       </c>
     </row>
     <row r="86" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="145" t="s">
+      <c r="A86" s="147" t="s">
         <v>380</v>
       </c>
-      <c r="B86" s="146"/>
-      <c r="C86" s="146"/>
-      <c r="D86" s="146"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="147"/>
+      <c r="B86" s="148"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="148"/>
+      <c r="E86" s="148"/>
+      <c r="F86" s="149"/>
       <c r="G86" s="138">
         <f>G72</f>
         <v>17522.290000000005</v>
@@ -19949,14 +20005,14 @@
       <c r="P95" s="59"/>
     </row>
     <row r="96" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="145" t="s">
+      <c r="A96" s="147" t="s">
         <v>381</v>
       </c>
-      <c r="B96" s="146"/>
-      <c r="C96" s="146"/>
-      <c r="D96" s="146"/>
-      <c r="E96" s="146"/>
-      <c r="F96" s="147"/>
+      <c r="B96" s="148"/>
+      <c r="C96" s="148"/>
+      <c r="D96" s="148"/>
+      <c r="E96" s="148"/>
+      <c r="F96" s="149"/>
       <c r="G96" s="138">
         <f>SUM(G86:G95)</f>
         <v>17767.760000000006</v>
@@ -20025,6 +20081,58 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:J80"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:J31"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:J5"/>
@@ -20040,63 +20148,12 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:J80"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:J81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:J85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="3" manualBreakCount="3">
     <brk id="23" max="9" man="1"/>
+    <brk id="49" max="9" man="1"/>
     <brk id="72" max="9" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
@@ -20130,34 +20187,34 @@
       <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="171"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="173"/>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="172"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -20173,19 +20230,19 @@
       <c r="K4" s="83"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="173"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="175"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -20284,14 +20341,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="157"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -20301,17 +20358,17 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="160" t="s">
+      <c r="H12" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
       <c r="K12" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -31984,34 +32041,34 @@
       <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="171"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="173"/>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="172"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -32027,19 +32084,19 @@
       <c r="K4" s="83"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="173"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="175"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -32138,14 +32195,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="157"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -32155,17 +32212,17 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="160" t="s">
+      <c r="H12" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
       <c r="K12" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -32826,36 +32883,36 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
     </row>
     <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -32872,20 +32929,20 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -32990,14 +33047,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -33007,18 +33064,18 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="160" t="s">
+      <c r="H12" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="169"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="168"/>
       <c r="L12" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -35590,14 +35647,14 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="145" t="s">
+      <c r="A76" s="147" t="s">
         <v>344</v>
       </c>
-      <c r="B76" s="146"/>
-      <c r="C76" s="146"/>
-      <c r="D76" s="146"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="147"/>
+      <c r="B76" s="148"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="149"/>
       <c r="G76" s="78">
         <f>SUM(G14:G75)</f>
         <v>143877.60999999999</v>
@@ -35682,30 +35739,30 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
     </row>
     <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -35719,17 +35776,17 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -35816,14 +35873,14 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -35841,7 +35898,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -37210,14 +37267,14 @@
       <c r="K55" s="67"/>
     </row>
     <row r="56" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="145" t="s">
+      <c r="A56" s="147" t="s">
         <v>344</v>
       </c>
-      <c r="B56" s="146"/>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="147"/>
+      <c r="B56" s="148"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="149"/>
       <c r="G56" s="78">
         <f>SUM(G14:G55)</f>
         <v>121522.06</v>
@@ -37282,237 +37339,289 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="8" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="70.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+    <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-    </row>
-    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+    </row>
+    <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A2" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B7" s="165"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="167" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+    </row>
+    <row r="8" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
-        <v>8</v>
+      <c r="B8" s="165"/>
+      <c r="C8" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="167" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="146" t="s">
+        <v>378</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
-        <v>10</v>
-      </c>
+    <row r="10" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="21">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="21">
         <v>2019</v>
       </c>
     </row>
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="164" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
-      <c r="B13" s="24" t="s">
+      <c r="A12" s="157"/>
+      <c r="B12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28" t="s">
+      <c r="E12" s="177"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J12" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="K13" s="123"/>
-      <c r="L13" s="29" t="s">
+      <c r="K12" s="157"/>
+      <c r="L12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M12" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>1</v>
+      </c>
+      <c r="B13" s="31">
+        <v>43731</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1225</v>
+      </c>
+      <c r="E13" s="110">
+        <v>16390</v>
+      </c>
+      <c r="F13" s="34">
+        <v>8183</v>
+      </c>
+      <c r="G13" s="111">
+        <v>3690.1</v>
+      </c>
+      <c r="H13" s="36">
+        <v>3690.1</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="113" t="s">
+        <v>357</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B14" s="31">
         <v>43731</v>
@@ -37524,16 +37633,16 @@
         <v>1225</v>
       </c>
       <c r="E14" s="110">
-        <v>16390</v>
+        <v>16391</v>
       </c>
       <c r="F14" s="34">
         <v>8183</v>
       </c>
       <c r="G14" s="111">
-        <v>3690.1</v>
+        <v>155</v>
       </c>
       <c r="H14" s="36">
-        <v>3690.1</v>
+        <v>155</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>30</v>
@@ -37542,7 +37651,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="113" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L14" t="s">
         <v>87</v>
@@ -37551,9 +37660,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B15" s="31">
         <v>43731</v>
@@ -37565,16 +37674,16 @@
         <v>1225</v>
       </c>
       <c r="E15" s="110">
-        <v>16391</v>
+        <v>16392</v>
       </c>
       <c r="F15" s="34">
         <v>8183</v>
       </c>
       <c r="G15" s="111">
-        <v>155</v>
+        <v>585</v>
       </c>
       <c r="H15" s="36">
-        <v>155</v>
+        <v>585</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>30</v>
@@ -37583,7 +37692,7 @@
         <v>30</v>
       </c>
       <c r="K15" s="113" t="s">
-        <v>360</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
         <v>87</v>
@@ -37592,9 +37701,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16" s="31">
         <v>43731</v>
@@ -37606,16 +37715,16 @@
         <v>1225</v>
       </c>
       <c r="E16" s="110">
-        <v>16392</v>
+        <v>16393</v>
       </c>
       <c r="F16" s="34">
         <v>8183</v>
       </c>
       <c r="G16" s="111">
-        <v>585</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="H16" s="36">
-        <v>585</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>30</v>
@@ -37624,7 +37733,7 @@
         <v>30</v>
       </c>
       <c r="K16" s="113" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="L16" t="s">
         <v>87</v>
@@ -37633,9 +37742,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B17" s="31">
         <v>43731</v>
@@ -37647,16 +37756,16 @@
         <v>1225</v>
       </c>
       <c r="E17" s="110">
-        <v>16393</v>
+        <v>16777</v>
       </c>
       <c r="F17" s="34">
         <v>8183</v>
       </c>
       <c r="G17" s="111">
-        <v>69.900000000000006</v>
+        <v>405</v>
       </c>
       <c r="H17" s="36">
-        <v>69.900000000000006</v>
+        <v>405</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>30</v>
@@ -37665,7 +37774,7 @@
         <v>30</v>
       </c>
       <c r="K17" s="113" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
         <v>87</v>
@@ -37674,30 +37783,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B18" s="31">
-        <v>43731</v>
+        <v>43763</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="39">
-        <v>1225</v>
+        <v>1320</v>
       </c>
       <c r="E18" s="110">
-        <v>16777</v>
+        <v>19325</v>
       </c>
       <c r="F18" s="34">
-        <v>8183</v>
+        <v>9528</v>
       </c>
       <c r="G18" s="111">
-        <v>405</v>
+        <v>3690.1</v>
       </c>
       <c r="H18" s="36">
-        <v>405</v>
+        <v>3690.1</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>30</v>
@@ -37706,7 +37815,7 @@
         <v>30</v>
       </c>
       <c r="K18" s="113" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
       <c r="L18" t="s">
         <v>87</v>
@@ -37715,9 +37824,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B19" s="31">
         <v>43763</v>
@@ -37729,16 +37838,16 @@
         <v>1320</v>
       </c>
       <c r="E19" s="110">
-        <v>19325</v>
+        <v>19326</v>
       </c>
       <c r="F19" s="34">
         <v>9528</v>
       </c>
       <c r="G19" s="111">
-        <v>3690.1</v>
+        <v>155</v>
       </c>
       <c r="H19" s="36">
-        <v>3690.1</v>
+        <v>155</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>30</v>
@@ -37747,7 +37856,7 @@
         <v>30</v>
       </c>
       <c r="K19" s="113" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L19" t="s">
         <v>87</v>
@@ -37756,9 +37865,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B20" s="31">
         <v>43763</v>
@@ -37770,16 +37879,16 @@
         <v>1320</v>
       </c>
       <c r="E20" s="110">
-        <v>19326</v>
+        <v>19327</v>
       </c>
       <c r="F20" s="34">
         <v>9528</v>
       </c>
       <c r="G20" s="111">
-        <v>155</v>
+        <v>585</v>
       </c>
       <c r="H20" s="36">
-        <v>155</v>
+        <v>585</v>
       </c>
       <c r="I20" s="36" t="s">
         <v>30</v>
@@ -37788,7 +37897,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="113" t="s">
-        <v>362</v>
+        <v>35</v>
       </c>
       <c r="L20" t="s">
         <v>87</v>
@@ -37797,9 +37906,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B21" s="31">
         <v>43763</v>
@@ -37811,16 +37920,16 @@
         <v>1320</v>
       </c>
       <c r="E21" s="110">
-        <v>19327</v>
+        <v>19328</v>
       </c>
       <c r="F21" s="34">
         <v>9528</v>
       </c>
       <c r="G21" s="111">
-        <v>585</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="H21" s="36">
-        <v>585</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>30</v>
@@ -37828,8 +37937,8 @@
       <c r="J21" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="113" t="s">
-        <v>35</v>
+      <c r="K21" s="120" t="s">
+        <v>269</v>
       </c>
       <c r="L21" t="s">
         <v>87</v>
@@ -37838,9 +37947,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B22" s="31">
         <v>43763</v>
@@ -37852,16 +37961,16 @@
         <v>1320</v>
       </c>
       <c r="E22" s="110">
-        <v>19328</v>
+        <v>19330</v>
       </c>
       <c r="F22" s="34">
         <v>9528</v>
       </c>
       <c r="G22" s="111">
-        <v>69.900000000000006</v>
+        <v>405</v>
       </c>
       <c r="H22" s="36">
-        <v>69.900000000000006</v>
+        <v>405</v>
       </c>
       <c r="I22" s="36" t="s">
         <v>30</v>
@@ -37870,7 +37979,7 @@
         <v>30</v>
       </c>
       <c r="K22" s="113" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="L22" t="s">
         <v>87</v>
@@ -37879,489 +37988,765 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="147" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="138">
+        <f>SUM(G13:G22)</f>
+        <v>9810</v>
+      </c>
+      <c r="H23" s="138">
+        <f>SUM(H13:H22)</f>
+        <v>9810</v>
+      </c>
+      <c r="I23" s="138">
+        <f t="shared" ref="H23:J23" si="0">SUM(I13:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="138">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="182"/>
+    </row>
+    <row r="24" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="150"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="150"/>
+    </row>
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.25">
+      <c r="A25" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="154" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="165"/>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="167" t="s">
+        <v>376</v>
+      </c>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="167"/>
+    </row>
+    <row r="31" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="165"/>
+      <c r="C31" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="167" t="s">
+        <v>377</v>
+      </c>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="167"/>
+    </row>
+    <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="166"/>
+      <c r="C32" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="146" t="s">
+        <v>378</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="157"/>
+      <c r="B35" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="177"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="31">
-        <v>43763</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="39">
-        <v>1320</v>
-      </c>
-      <c r="E23" s="110">
-        <v>19330</v>
-      </c>
-      <c r="F23" s="34">
-        <v>9528</v>
-      </c>
-      <c r="G23" s="111">
+      <c r="I35" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="K35" s="157"/>
+      <c r="L35" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="147" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="148"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="138">
+        <f>G23</f>
+        <v>9810</v>
+      </c>
+      <c r="H36" s="138">
+        <f>H23</f>
+        <v>9810</v>
+      </c>
+      <c r="I36" s="138">
+        <f>I23</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="138"/>
+      <c r="K36" s="133"/>
+    </row>
+    <row r="37" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>11</v>
+      </c>
+      <c r="B37" s="31">
+        <v>43830</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="30">
+        <v>4486</v>
+      </c>
+      <c r="E37" s="110" t="s">
+        <v>363</v>
+      </c>
+      <c r="F37" s="34">
+        <v>10127</v>
+      </c>
+      <c r="G37" s="111">
+        <v>2435.5500000000002</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="36">
+        <v>2435.5500000000002</v>
+      </c>
+      <c r="J37" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="L37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>12</v>
+      </c>
+      <c r="B38" s="31">
+        <v>43796</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="39">
+        <v>1600</v>
+      </c>
+      <c r="E38" s="110">
+        <v>23346</v>
+      </c>
+      <c r="F38" s="34">
+        <v>11212</v>
+      </c>
+      <c r="G38" s="111">
+        <v>3690.1</v>
+      </c>
+      <c r="H38" s="36">
+        <v>3690.1</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="113" t="s">
+        <v>368</v>
+      </c>
+      <c r="L38" t="s">
+        <v>87</v>
+      </c>
+      <c r="M38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>13</v>
+      </c>
+      <c r="B39" s="31">
+        <v>43796</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="39">
+        <v>1600</v>
+      </c>
+      <c r="E39" s="110">
+        <v>23347</v>
+      </c>
+      <c r="F39" s="34">
+        <v>11212</v>
+      </c>
+      <c r="G39" s="111">
+        <v>155</v>
+      </c>
+      <c r="H39" s="36">
+        <v>155</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="113" t="s">
+        <v>369</v>
+      </c>
+      <c r="L39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>14</v>
+      </c>
+      <c r="B40" s="31">
+        <v>43796</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="39">
+        <v>1600</v>
+      </c>
+      <c r="E40" s="110">
+        <v>23348</v>
+      </c>
+      <c r="F40" s="34">
+        <v>11212</v>
+      </c>
+      <c r="G40" s="111">
+        <v>585</v>
+      </c>
+      <c r="H40" s="36">
+        <v>585</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>15</v>
+      </c>
+      <c r="B41" s="31">
+        <v>43796</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="39">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="110">
+        <v>23351</v>
+      </c>
+      <c r="F41" s="34">
+        <v>11212</v>
+      </c>
+      <c r="G41" s="111">
         <v>405</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H41" s="36">
         <v>405</v>
       </c>
-      <c r="I23" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="113" t="s">
+      <c r="I41" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L41" t="s">
         <v>87</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M41" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
-        <v>25</v>
-      </c>
-      <c r="B24" s="31">
-        <v>43830</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="30">
-        <v>4486</v>
-      </c>
-      <c r="E24" s="110" t="s">
-        <v>363</v>
-      </c>
-      <c r="F24" s="34">
-        <v>10127</v>
-      </c>
-      <c r="G24" s="111">
+    <row r="42" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>16</v>
+      </c>
+      <c r="B42" s="31">
+        <v>43796</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="39">
+        <v>1600</v>
+      </c>
+      <c r="E42" s="110">
+        <v>60</v>
+      </c>
+      <c r="F42" s="34">
+        <v>11212</v>
+      </c>
+      <c r="G42" s="111">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H42" s="36">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="L42" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>17</v>
+      </c>
+      <c r="B43" s="31">
+        <v>43811</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="39">
+        <v>1748</v>
+      </c>
+      <c r="E43" s="110">
+        <v>26275</v>
+      </c>
+      <c r="F43" s="34">
+        <v>12188</v>
+      </c>
+      <c r="G43" s="111">
+        <v>4060</v>
+      </c>
+      <c r="H43" s="36">
+        <v>4060</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="113" t="s">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>18</v>
+      </c>
+      <c r="B44" s="31">
+        <v>43811</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="39">
+        <v>1748</v>
+      </c>
+      <c r="E44" s="110">
+        <v>26276</v>
+      </c>
+      <c r="F44" s="34">
+        <v>12188</v>
+      </c>
+      <c r="G44" s="111">
+        <v>155</v>
+      </c>
+      <c r="H44" s="36">
+        <v>155</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="113" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>19</v>
+      </c>
+      <c r="B45" s="31">
+        <v>43811</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="39">
+        <v>1748</v>
+      </c>
+      <c r="E45" s="110">
+        <v>26277</v>
+      </c>
+      <c r="F45" s="34">
+        <v>12188</v>
+      </c>
+      <c r="G45" s="111">
+        <v>585</v>
+      </c>
+      <c r="H45" s="36">
+        <v>585</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" t="s">
+        <v>87</v>
+      </c>
+      <c r="M45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="30">
+        <v>20</v>
+      </c>
+      <c r="B46" s="71">
+        <v>43811</v>
+      </c>
+      <c r="C46" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="126">
+        <v>1748</v>
+      </c>
+      <c r="E46" s="116">
+        <v>26279</v>
+      </c>
+      <c r="F46" s="74">
+        <v>12188</v>
+      </c>
+      <c r="G46" s="117">
+        <v>405</v>
+      </c>
+      <c r="H46" s="118">
+        <v>405</v>
+      </c>
+      <c r="I46" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M46" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="147" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" s="148"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="138">
+        <f>SUM(G36:G46)</f>
+        <v>22355.550000000003</v>
+      </c>
+      <c r="H47" s="138">
+        <f>SUM(H36:H46)</f>
+        <v>19920</v>
+      </c>
+      <c r="I47" s="138">
+        <f>SUM(I36:I46)</f>
         <v>2435.5500000000002</v>
       </c>
-      <c r="H24" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="36">
-        <v>2435.5500000000002</v>
-      </c>
-      <c r="J24" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="113" t="s">
-        <v>364</v>
-      </c>
-      <c r="L24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
-        <v>42</v>
-      </c>
-      <c r="B25" s="31">
-        <v>43796</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="39">
-        <v>1600</v>
-      </c>
-      <c r="E25" s="110">
-        <v>23346</v>
-      </c>
-      <c r="F25" s="34">
-        <v>11212</v>
-      </c>
-      <c r="G25" s="111">
-        <v>3690.1</v>
-      </c>
-      <c r="H25" s="36">
-        <v>3690.1</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="113" t="s">
-        <v>368</v>
-      </c>
-      <c r="L25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
-        <v>43</v>
-      </c>
-      <c r="B26" s="31">
-        <v>43796</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="39">
-        <v>1600</v>
-      </c>
-      <c r="E26" s="110">
-        <v>23347</v>
-      </c>
-      <c r="F26" s="34">
-        <v>11212</v>
-      </c>
-      <c r="G26" s="111">
-        <v>155</v>
-      </c>
-      <c r="H26" s="36">
-        <v>155</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="113" t="s">
-        <v>369</v>
-      </c>
-      <c r="L26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <v>44</v>
-      </c>
-      <c r="B27" s="31">
-        <v>43796</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="39">
-        <v>1600</v>
-      </c>
-      <c r="E27" s="110">
-        <v>23348</v>
-      </c>
-      <c r="F27" s="34">
-        <v>11212</v>
-      </c>
-      <c r="G27" s="111">
-        <v>585</v>
-      </c>
-      <c r="H27" s="36">
-        <v>585</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" t="s">
-        <v>87</v>
-      </c>
-      <c r="M27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
-        <v>46</v>
-      </c>
-      <c r="B28" s="31">
-        <v>43796</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="39">
-        <v>1600</v>
-      </c>
-      <c r="E28" s="110">
-        <v>23351</v>
-      </c>
-      <c r="F28" s="34">
-        <v>11212</v>
-      </c>
-      <c r="G28" s="111">
-        <v>405</v>
-      </c>
-      <c r="H28" s="36">
-        <v>405</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" t="s">
-        <v>87</v>
-      </c>
-      <c r="M28" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
-        <v>47</v>
-      </c>
-      <c r="B29" s="31">
-        <v>43796</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="39">
-        <v>1600</v>
-      </c>
-      <c r="E29" s="110">
-        <v>60</v>
-      </c>
-      <c r="F29" s="34">
-        <v>11212</v>
-      </c>
-      <c r="G29" s="111">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="H29" s="36">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="113" t="s">
-        <v>269</v>
-      </c>
-      <c r="L29" t="s">
-        <v>87</v>
-      </c>
-      <c r="M29" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <v>62</v>
-      </c>
-      <c r="B30" s="31">
-        <v>43811</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="39">
-        <v>1748</v>
-      </c>
-      <c r="E30" s="110">
-        <v>26275</v>
-      </c>
-      <c r="F30" s="34">
-        <v>12188</v>
-      </c>
-      <c r="G30" s="111">
-        <v>4060</v>
-      </c>
-      <c r="H30" s="36">
-        <v>4060</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="113" t="s">
-        <v>374</v>
-      </c>
-      <c r="L30" t="s">
-        <v>87</v>
-      </c>
-      <c r="M30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
-        <v>63</v>
-      </c>
-      <c r="B31" s="31">
-        <v>43811</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="39">
-        <v>1748</v>
-      </c>
-      <c r="E31" s="110">
-        <v>26276</v>
-      </c>
-      <c r="F31" s="34">
-        <v>12188</v>
-      </c>
-      <c r="G31" s="111">
-        <v>155</v>
-      </c>
-      <c r="H31" s="36">
-        <v>155</v>
-      </c>
-      <c r="I31" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="113" t="s">
-        <v>375</v>
-      </c>
-      <c r="L31" t="s">
-        <v>87</v>
-      </c>
-      <c r="M31" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
-        <v>64</v>
-      </c>
-      <c r="B32" s="31">
-        <v>43811</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="39">
-        <v>1748</v>
-      </c>
-      <c r="E32" s="110">
-        <v>26277</v>
-      </c>
-      <c r="F32" s="34">
-        <v>12188</v>
-      </c>
-      <c r="G32" s="111">
-        <v>585</v>
-      </c>
-      <c r="H32" s="36">
-        <v>585</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" t="s">
-        <v>87</v>
-      </c>
-      <c r="M32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="114">
-        <v>65</v>
-      </c>
-      <c r="B33" s="71">
-        <v>43811</v>
-      </c>
-      <c r="C33" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="126">
-        <v>1748</v>
-      </c>
-      <c r="E33" s="116">
-        <v>26279</v>
-      </c>
-      <c r="F33" s="74">
-        <v>12188</v>
-      </c>
-      <c r="G33" s="117">
-        <v>405</v>
-      </c>
-      <c r="H33" s="118">
-        <v>405</v>
-      </c>
-      <c r="I33" s="118" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" t="s">
-        <v>87</v>
-      </c>
-      <c r="M33" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
+      <c r="J47" s="138">
+        <f>SUM(J36:J46)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="182"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="144" t="s">
+        <v>382</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="E13:K33"/>
-  <mergeCells count="6">
+  <mergeCells count="33">
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.74803149606299213" right="0.31496062992125984" top="0.47244094488188981" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="23" max="10" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="11" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2019.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="853" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="853" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019-RO" sheetId="1" r:id="rId1"/>
@@ -2139,6 +2139,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="16" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2196,17 +2199,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2214,8 +2214,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2243,9 +2246,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2552,38 +2552,38 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
     </row>
     <row r="3" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -2601,21 +2601,21 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2726,15 +2726,15 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160" t="s">
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -2743,19 +2743,19 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="162" t="s">
+      <c r="H12" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="164" t="s">
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="165" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="161"/>
+      <c r="E13" s="162"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28" t="s">
@@ -2783,7 +2783,7 @@
       <c r="L13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="157"/>
+      <c r="M13" s="158"/>
       <c r="N13" s="29" t="s">
         <v>26</v>
       </c>
@@ -17370,14 +17370,14 @@
       <c r="S353" s="59"/>
     </row>
     <row r="354" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="147" t="s">
+      <c r="A354" s="148" t="s">
         <v>344</v>
       </c>
-      <c r="B354" s="148"/>
-      <c r="C354" s="148"/>
-      <c r="D354" s="148"/>
-      <c r="E354" s="148"/>
-      <c r="F354" s="149"/>
+      <c r="B354" s="149"/>
+      <c r="C354" s="149"/>
+      <c r="D354" s="149"/>
+      <c r="E354" s="149"/>
+      <c r="F354" s="150"/>
       <c r="G354" s="78">
         <f t="shared" ref="G354:L354" si="8">SUM(G14:G353)</f>
         <v>577235.12999999942</v>
@@ -17484,32 +17484,32 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
     </row>
     <row r="3" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -17524,18 +17524,18 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -17568,10 +17568,10 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
@@ -17587,10 +17587,10 @@
       <c r="K8" s="132"/>
     </row>
     <row r="9" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="165"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="131" t="s">
         <v>10</v>
       </c>
@@ -17606,10 +17606,10 @@
       <c r="K9" s="132"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="166"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="131" t="s">
         <v>10</v>
       </c>
@@ -17639,31 +17639,31 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160" t="s">
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="164" t="s">
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="165" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -17673,16 +17673,16 @@
       <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="172"/>
+      <c r="E13" s="169"/>
       <c r="F13" s="171"/>
-      <c r="G13" s="169"/>
+      <c r="G13" s="173"/>
       <c r="H13" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="157"/>
+      <c r="J13" s="158"/>
       <c r="K13" s="29" t="s">
         <v>26</v>
       </c>
@@ -18053,14 +18053,14 @@
       <c r="P22" s="59"/>
     </row>
     <row r="23" spans="1:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="147" t="s">
+      <c r="A23" s="148" t="s">
         <v>344</v>
       </c>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="149"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="150"/>
       <c r="G23" s="138">
         <f>SUM(G14:G22)</f>
         <v>5245.86</v>
@@ -18090,32 +18090,32 @@
       <c r="K24" s="139"/>
     </row>
     <row r="25" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="150" t="s">
+      <c r="A25" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
     </row>
     <row r="26" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A26" s="152" t="s">
+      <c r="A26" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -18130,18 +18130,18 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
     </row>
     <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -18174,10 +18174,10 @@
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="165"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="4" t="s">
         <v>10</v>
       </c>
@@ -18193,10 +18193,10 @@
       <c r="K31" s="132"/>
     </row>
     <row r="32" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="165"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="131" t="s">
         <v>10</v>
       </c>
@@ -18212,10 +18212,10 @@
       <c r="K32" s="132"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="166" t="s">
+      <c r="A33" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="166"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="131" t="s">
         <v>10</v>
       </c>
@@ -18245,31 +18245,31 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="156" t="s">
+      <c r="A35" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="158" t="s">
+      <c r="B35" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="158"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="160" t="s">
+      <c r="C35" s="159"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="168" t="s">
+      <c r="G35" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="164" t="s">
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="165" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="157"/>
+      <c r="A36" s="158"/>
       <c r="B36" s="24" t="s">
         <v>18</v>
       </c>
@@ -18279,16 +18279,16 @@
       <c r="D36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="172"/>
+      <c r="E36" s="169"/>
       <c r="F36" s="171"/>
-      <c r="G36" s="169"/>
+      <c r="G36" s="173"/>
       <c r="H36" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="157"/>
+      <c r="J36" s="158"/>
       <c r="K36" s="29" t="s">
         <v>26</v>
       </c>
@@ -18297,14 +18297,14 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="147" t="s">
+      <c r="A37" s="148" t="s">
         <v>380</v>
       </c>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="149"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="150"/>
       <c r="G37" s="138">
         <f>G23</f>
         <v>5245.86</v>
@@ -18741,14 +18741,14 @@
       <c r="P47" s="59"/>
     </row>
     <row r="48" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="147" t="s">
+      <c r="A48" s="148" t="s">
         <v>381</v>
       </c>
-      <c r="B48" s="148"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="149"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="150"/>
       <c r="G48" s="138">
         <f>SUM(G37:G47)</f>
         <v>15355.859999999999</v>
@@ -18778,32 +18778,32 @@
       <c r="K49" s="142"/>
     </row>
     <row r="50" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="150" t="s">
+      <c r="A50" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="150"/>
-      <c r="C50" s="150"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="150"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
     </row>
     <row r="51" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A51" s="152" t="s">
+      <c r="A51" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="152"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="153"/>
     </row>
     <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -18818,18 +18818,18 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="154" t="s">
+      <c r="A53" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="154"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="154"/>
-      <c r="H53" s="154"/>
-      <c r="I53" s="154"/>
-      <c r="J53" s="154"/>
+      <c r="B53" s="155"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
     </row>
     <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -18862,10 +18862,10 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="165" t="s">
+      <c r="A56" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="165"/>
+      <c r="B56" s="166"/>
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
@@ -18881,10 +18881,10 @@
       <c r="K56" s="132"/>
     </row>
     <row r="57" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="165" t="s">
+      <c r="A57" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="165"/>
+      <c r="B57" s="166"/>
       <c r="C57" s="131" t="s">
         <v>10</v>
       </c>
@@ -18900,10 +18900,10 @@
       <c r="K57" s="132"/>
     </row>
     <row r="58" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="166" t="s">
+      <c r="A58" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="166"/>
+      <c r="B58" s="168"/>
       <c r="C58" s="131" t="s">
         <v>10</v>
       </c>
@@ -18933,31 +18933,31 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="156" t="s">
+      <c r="A60" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="158" t="s">
+      <c r="B60" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="158"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="160" t="s">
+      <c r="C60" s="159"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="168" t="s">
+      <c r="G60" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="163"/>
-      <c r="I60" s="163"/>
-      <c r="J60" s="164" t="s">
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="165" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="157"/>
+      <c r="A61" s="158"/>
       <c r="B61" s="24" t="s">
         <v>18</v>
       </c>
@@ -18967,16 +18967,16 @@
       <c r="D61" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="172"/>
+      <c r="E61" s="169"/>
       <c r="F61" s="171"/>
-      <c r="G61" s="169"/>
+      <c r="G61" s="173"/>
       <c r="H61" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="157"/>
+      <c r="J61" s="158"/>
       <c r="K61" s="29" t="s">
         <v>26</v>
       </c>
@@ -18985,14 +18985,14 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="147" t="s">
+      <c r="A62" s="148" t="s">
         <v>380</v>
       </c>
-      <c r="B62" s="148"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="149"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="150"/>
       <c r="G62" s="138">
         <f>G48</f>
         <v>15355.859999999999</v>
@@ -19377,14 +19377,14 @@
       <c r="P71" s="59"/>
     </row>
     <row r="72" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="147" t="s">
+      <c r="A72" s="148" t="s">
         <v>381</v>
       </c>
-      <c r="B72" s="148"/>
-      <c r="C72" s="148"/>
-      <c r="D72" s="148"/>
-      <c r="E72" s="148"/>
-      <c r="F72" s="149"/>
+      <c r="B72" s="149"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="149"/>
+      <c r="F72" s="150"/>
       <c r="G72" s="138">
         <f>SUM(G62:G71)</f>
         <v>17522.290000000005</v>
@@ -19414,32 +19414,32 @@
       <c r="K73" s="142"/>
     </row>
     <row r="74" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="150" t="s">
+      <c r="A74" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="150"/>
-      <c r="C74" s="150"/>
-      <c r="D74" s="151"/>
-      <c r="E74" s="150"/>
-      <c r="F74" s="150"/>
-      <c r="G74" s="150"/>
-      <c r="H74" s="150"/>
-      <c r="I74" s="150"/>
-      <c r="J74" s="150"/>
+      <c r="B74" s="151"/>
+      <c r="C74" s="151"/>
+      <c r="D74" s="152"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="151"/>
+      <c r="G74" s="151"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="151"/>
     </row>
     <row r="75" spans="1:16" ht="27" x14ac:dyDescent="0.25">
-      <c r="A75" s="152" t="s">
+      <c r="A75" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="152"/>
-      <c r="C75" s="152"/>
-      <c r="D75" s="153"/>
-      <c r="E75" s="152"/>
-      <c r="F75" s="152"/>
-      <c r="G75" s="152"/>
-      <c r="H75" s="152"/>
-      <c r="I75" s="152"/>
-      <c r="J75" s="152"/>
+      <c r="B75" s="153"/>
+      <c r="C75" s="153"/>
+      <c r="D75" s="154"/>
+      <c r="E75" s="153"/>
+      <c r="F75" s="153"/>
+      <c r="G75" s="153"/>
+      <c r="H75" s="153"/>
+      <c r="I75" s="153"/>
+      <c r="J75" s="153"/>
     </row>
     <row r="76" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
@@ -19454,18 +19454,18 @@
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="154" t="s">
+      <c r="A77" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="154"/>
-      <c r="C77" s="154"/>
-      <c r="D77" s="155"/>
-      <c r="E77" s="154"/>
-      <c r="F77" s="154"/>
-      <c r="G77" s="154"/>
-      <c r="H77" s="154"/>
-      <c r="I77" s="154"/>
-      <c r="J77" s="154"/>
+      <c r="B77" s="155"/>
+      <c r="C77" s="155"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="155"/>
+      <c r="F77" s="155"/>
+      <c r="G77" s="155"/>
+      <c r="H77" s="155"/>
+      <c r="I77" s="155"/>
+      <c r="J77" s="155"/>
     </row>
     <row r="78" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -19498,10 +19498,10 @@
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="165" t="s">
+      <c r="A80" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="165"/>
+      <c r="B80" s="166"/>
       <c r="C80" s="4" t="s">
         <v>10</v>
       </c>
@@ -19517,10 +19517,10 @@
       <c r="K80" s="132"/>
     </row>
     <row r="81" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="165" t="s">
+      <c r="A81" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="165"/>
+      <c r="B81" s="166"/>
       <c r="C81" s="131" t="s">
         <v>10</v>
       </c>
@@ -19536,10 +19536,10 @@
       <c r="K81" s="132"/>
     </row>
     <row r="82" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="166" t="s">
+      <c r="A82" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="166"/>
+      <c r="B82" s="168"/>
       <c r="C82" s="131" t="s">
         <v>10</v>
       </c>
@@ -19569,31 +19569,31 @@
       </c>
     </row>
     <row r="84" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="156" t="s">
+      <c r="A84" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="158" t="s">
+      <c r="B84" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="158"/>
-      <c r="D84" s="159"/>
-      <c r="E84" s="160" t="s">
+      <c r="C84" s="159"/>
+      <c r="D84" s="160"/>
+      <c r="E84" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="168" t="s">
+      <c r="G84" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="163"/>
-      <c r="I84" s="163"/>
-      <c r="J84" s="164" t="s">
+      <c r="H84" s="164"/>
+      <c r="I84" s="164"/>
+      <c r="J84" s="165" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="157"/>
+      <c r="A85" s="158"/>
       <c r="B85" s="24" t="s">
         <v>18</v>
       </c>
@@ -19603,16 +19603,16 @@
       <c r="D85" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="172"/>
+      <c r="E85" s="169"/>
       <c r="F85" s="171"/>
-      <c r="G85" s="169"/>
+      <c r="G85" s="173"/>
       <c r="H85" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J85" s="157"/>
+      <c r="J85" s="158"/>
       <c r="K85" s="29" t="s">
         <v>26</v>
       </c>
@@ -19621,14 +19621,14 @@
       </c>
     </row>
     <row r="86" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="147" t="s">
+      <c r="A86" s="148" t="s">
         <v>380</v>
       </c>
-      <c r="B86" s="148"/>
-      <c r="C86" s="148"/>
-      <c r="D86" s="148"/>
-      <c r="E86" s="148"/>
-      <c r="F86" s="149"/>
+      <c r="B86" s="149"/>
+      <c r="C86" s="149"/>
+      <c r="D86" s="149"/>
+      <c r="E86" s="149"/>
+      <c r="F86" s="150"/>
       <c r="G86" s="138">
         <f>G72</f>
         <v>17522.290000000005</v>
@@ -20005,14 +20005,14 @@
       <c r="P95" s="59"/>
     </row>
     <row r="96" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="147" t="s">
+      <c r="A96" s="148" t="s">
         <v>381</v>
       </c>
-      <c r="B96" s="148"/>
-      <c r="C96" s="148"/>
-      <c r="D96" s="148"/>
-      <c r="E96" s="148"/>
-      <c r="F96" s="149"/>
+      <c r="B96" s="149"/>
+      <c r="C96" s="149"/>
+      <c r="D96" s="149"/>
+      <c r="E96" s="149"/>
+      <c r="F96" s="150"/>
       <c r="G96" s="138">
         <f>SUM(G86:G95)</f>
         <v>17767.760000000006</v>
@@ -20081,42 +20081,21 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:J81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:J80"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="D32:J32"/>
@@ -20133,21 +20112,42 @@
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:J80"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:J85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
@@ -20164,17 +20164,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O317"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K140" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="11" max="11" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -20187,34 +20189,34 @@
       <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="173"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="174"/>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="174"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="175"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -20230,19 +20232,19 @@
       <c r="K4" s="83"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="175"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="176"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -20341,14 +20343,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -20358,17 +20360,17 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="162" t="s">
+      <c r="H12" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
       <c r="K12" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -20643,7 +20645,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>10</v>
       </c>
@@ -20713,7 +20715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>12</v>
       </c>
@@ -20748,7 +20750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>13</v>
       </c>
@@ -20789,7 +20791,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="31">
         <v>43708</v>
@@ -20828,7 +20830,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>15</v>
       </c>
@@ -20904,7 +20906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>19</v>
       </c>
@@ -21009,7 +21011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>22</v>
       </c>
@@ -21044,7 +21046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>23</v>
       </c>
@@ -21114,7 +21116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>25</v>
       </c>
@@ -21151,7 +21153,7 @@
       <c r="L34" s="67"/>
       <c r="M34" s="67"/>
     </row>
-    <row r="35" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>26</v>
       </c>
@@ -21192,7 +21194,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>27</v>
       </c>
@@ -21229,7 +21231,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>28</v>
       </c>
@@ -21266,7 +21268,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>29</v>
       </c>
@@ -21307,7 +21309,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>30</v>
       </c>
@@ -21348,7 +21350,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>31</v>
       </c>
@@ -21389,7 +21391,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>32</v>
       </c>
@@ -21428,7 +21430,7 @@
       </c>
       <c r="M41" s="67"/>
     </row>
-    <row r="42" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>33</v>
       </c>
@@ -21463,7 +21465,7 @@
       </c>
       <c r="M42" s="67"/>
     </row>
-    <row r="43" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>34</v>
       </c>
@@ -21498,7 +21500,7 @@
       </c>
       <c r="M43" s="67"/>
     </row>
-    <row r="44" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>35</v>
       </c>
@@ -21533,7 +21535,7 @@
       </c>
       <c r="M44" s="67"/>
     </row>
-    <row r="45" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>36</v>
       </c>
@@ -21568,7 +21570,7 @@
       </c>
       <c r="M45" s="67"/>
     </row>
-    <row r="46" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>37</v>
       </c>
@@ -21603,7 +21605,7 @@
       </c>
       <c r="M46" s="67"/>
     </row>
-    <row r="47" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>38</v>
       </c>
@@ -21638,7 +21640,7 @@
       </c>
       <c r="M47" s="67"/>
     </row>
-    <row r="48" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>39</v>
       </c>
@@ -21673,7 +21675,7 @@
       </c>
       <c r="M48" s="67"/>
     </row>
-    <row r="49" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>40</v>
       </c>
@@ -21708,7 +21710,7 @@
       </c>
       <c r="M49" s="67"/>
     </row>
-    <row r="50" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>41</v>
       </c>
@@ -21745,7 +21747,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>42</v>
       </c>
@@ -21782,7 +21784,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>43</v>
       </c>
@@ -21819,7 +21821,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>44</v>
       </c>
@@ -21856,7 +21858,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>45</v>
       </c>
@@ -21893,7 +21895,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>46</v>
       </c>
@@ -21930,7 +21932,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>47</v>
       </c>
@@ -21967,7 +21969,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>48</v>
       </c>
@@ -22004,7 +22006,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>49</v>
       </c>
@@ -22041,7 +22043,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>50</v>
       </c>
@@ -22078,7 +22080,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>51</v>
       </c>
@@ -22115,7 +22117,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>52</v>
       </c>
@@ -22152,7 +22154,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>53</v>
       </c>
@@ -22189,7 +22191,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>54</v>
       </c>
@@ -22226,7 +22228,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>56</v>
       </c>
@@ -22263,7 +22265,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>57</v>
       </c>
@@ -22300,7 +22302,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>58</v>
       </c>
@@ -22337,7 +22339,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>59</v>
       </c>
@@ -22374,7 +22376,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>60</v>
       </c>
@@ -22415,7 +22417,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>61</v>
       </c>
@@ -22452,7 +22454,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>62</v>
       </c>
@@ -22489,7 +22491,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>63</v>
       </c>
@@ -22526,7 +22528,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>64</v>
       </c>
@@ -22563,7 +22565,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>65</v>
       </c>
@@ -22600,7 +22602,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>66</v>
       </c>
@@ -22637,7 +22639,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>67</v>
       </c>
@@ -22674,7 +22676,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>68</v>
       </c>
@@ -22711,7 +22713,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>69</v>
       </c>
@@ -22748,7 +22750,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>70</v>
       </c>
@@ -22785,7 +22787,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>71</v>
       </c>
@@ -22822,7 +22824,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30">
         <v>72</v>
       </c>
@@ -22859,7 +22861,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>73</v>
       </c>
@@ -22896,7 +22898,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30">
         <v>75</v>
       </c>
@@ -22937,7 +22939,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>76</v>
       </c>
@@ -22974,7 +22976,7 @@
       <c r="L83" s="67"/>
       <c r="M83" s="67"/>
     </row>
-    <row r="84" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30">
         <v>77</v>
       </c>
@@ -23011,7 +23013,7 @@
       <c r="L84" s="67"/>
       <c r="M84" s="67"/>
     </row>
-    <row r="85" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30">
         <v>78</v>
       </c>
@@ -23050,7 +23052,7 @@
       </c>
       <c r="M85" s="67"/>
     </row>
-    <row r="86" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>79</v>
       </c>
@@ -23085,7 +23087,7 @@
       </c>
       <c r="M86" s="67"/>
     </row>
-    <row r="87" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30">
         <v>80</v>
       </c>
@@ -23120,7 +23122,7 @@
       </c>
       <c r="M87" s="67"/>
     </row>
-    <row r="88" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30">
         <v>81</v>
       </c>
@@ -23155,7 +23157,7 @@
       </c>
       <c r="M88" s="67"/>
     </row>
-    <row r="89" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
         <v>82</v>
       </c>
@@ -23190,7 +23192,7 @@
       </c>
       <c r="M89" s="67"/>
     </row>
-    <row r="90" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30">
         <v>83</v>
       </c>
@@ -23225,7 +23227,7 @@
       </c>
       <c r="M90" s="67"/>
     </row>
-    <row r="91" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30">
         <v>84</v>
       </c>
@@ -23260,7 +23262,7 @@
       </c>
       <c r="M91" s="67"/>
     </row>
-    <row r="92" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
         <v>85</v>
       </c>
@@ -23295,7 +23297,7 @@
       </c>
       <c r="M92" s="67"/>
     </row>
-    <row r="93" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30">
         <v>86</v>
       </c>
@@ -23330,7 +23332,7 @@
       </c>
       <c r="M93" s="67"/>
     </row>
-    <row r="94" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30">
         <v>87</v>
       </c>
@@ -23365,7 +23367,7 @@
       </c>
       <c r="M94" s="67"/>
     </row>
-    <row r="95" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>88</v>
       </c>
@@ -23400,7 +23402,7 @@
       </c>
       <c r="M95" s="67"/>
     </row>
-    <row r="96" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30">
         <v>89</v>
       </c>
@@ -23435,7 +23437,7 @@
       </c>
       <c r="M96" s="67"/>
     </row>
-    <row r="97" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30">
         <v>90</v>
       </c>
@@ -23470,7 +23472,7 @@
       </c>
       <c r="M97" s="67"/>
     </row>
-    <row r="98" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <v>91</v>
       </c>
@@ -23505,7 +23507,7 @@
       </c>
       <c r="M98" s="67"/>
     </row>
-    <row r="99" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30">
         <v>92</v>
       </c>
@@ -23540,7 +23542,7 @@
       </c>
       <c r="M99" s="67"/>
     </row>
-    <row r="100" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30">
         <v>93</v>
       </c>
@@ -23575,7 +23577,7 @@
       </c>
       <c r="M100" s="67"/>
     </row>
-    <row r="101" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="38">
         <v>94</v>
       </c>
@@ -23754,7 +23756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30">
         <v>99</v>
       </c>
@@ -23789,7 +23791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>100</v>
       </c>
@@ -23824,7 +23826,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30">
         <v>101</v>
       </c>
@@ -23859,7 +23861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30">
         <v>102</v>
       </c>
@@ -23894,7 +23896,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
         <v>103</v>
       </c>
@@ -23933,7 +23935,7 @@
       </c>
       <c r="M110" s="67"/>
     </row>
-    <row r="111" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30">
         <v>104</v>
       </c>
@@ -23972,7 +23974,7 @@
       </c>
       <c r="M111" s="67"/>
     </row>
-    <row r="112" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30">
         <v>105</v>
       </c>
@@ -24046,7 +24048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30">
         <v>107</v>
       </c>
@@ -24151,7 +24153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30">
         <v>110</v>
       </c>
@@ -24186,7 +24188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30">
         <v>111</v>
       </c>
@@ -24221,7 +24223,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <v>112</v>
       </c>
@@ -24260,7 +24262,7 @@
       </c>
       <c r="M119" s="67"/>
     </row>
-    <row r="120" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30">
         <v>113</v>
       </c>
@@ -24299,7 +24301,7 @@
       </c>
       <c r="M120" s="67"/>
     </row>
-    <row r="121" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30">
         <v>114</v>
       </c>
@@ -24336,7 +24338,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
         <v>115</v>
       </c>
@@ -24373,7 +24375,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30">
         <v>116</v>
       </c>
@@ -24410,7 +24412,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30">
         <v>117</v>
       </c>
@@ -24447,7 +24449,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <v>118</v>
       </c>
@@ -24628,7 +24630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
         <v>123</v>
       </c>
@@ -24663,7 +24665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
         <v>124</v>
       </c>
@@ -24698,7 +24700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30">
         <v>125</v>
       </c>
@@ -24768,7 +24770,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>127</v>
       </c>
@@ -24873,7 +24875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <v>130</v>
       </c>
@@ -24908,7 +24910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30">
         <v>131</v>
       </c>
@@ -24943,7 +24945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>133</v>
       </c>
@@ -24980,7 +24982,7 @@
       <c r="L139" s="67"/>
       <c r="M139" s="67"/>
     </row>
-    <row r="140" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30">
         <v>135</v>
       </c>
@@ -25017,7 +25019,7 @@
       <c r="L140" s="67"/>
       <c r="M140" s="67"/>
     </row>
-    <row r="141" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>136</v>
       </c>
@@ -25052,7 +25054,7 @@
       </c>
       <c r="M141" s="67"/>
     </row>
-    <row r="142" spans="1:13" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
         <v>137</v>
       </c>
@@ -25231,7 +25233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
         <v>142</v>
       </c>
@@ -25270,7 +25272,7 @@
       <c r="N147" s="59"/>
       <c r="O147" s="59"/>
     </row>
-    <row r="148" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30">
         <v>143</v>
       </c>
@@ -25309,7 +25311,7 @@
       <c r="N148" s="59"/>
       <c r="O148" s="59"/>
     </row>
-    <row r="149" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30">
         <v>144</v>
       </c>
@@ -25348,7 +25350,7 @@
       <c r="N149" s="59"/>
       <c r="O149" s="59"/>
     </row>
-    <row r="150" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
         <v>145</v>
       </c>
@@ -25387,7 +25389,7 @@
       <c r="N150" s="59"/>
       <c r="O150" s="59"/>
     </row>
-    <row r="151" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30">
         <v>146</v>
       </c>
@@ -25428,7 +25430,7 @@
       <c r="N151" s="59"/>
       <c r="O151" s="59"/>
     </row>
-    <row r="152" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30">
         <v>147</v>
       </c>
@@ -25469,7 +25471,7 @@
       <c r="N152" s="59"/>
       <c r="O152" s="59"/>
     </row>
-    <row r="153" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30">
         <v>149</v>
       </c>
@@ -25508,7 +25510,7 @@
       <c r="N153" s="59"/>
       <c r="O153" s="59"/>
     </row>
-    <row r="154" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30">
         <v>150</v>
       </c>
@@ -25547,7 +25549,7 @@
       <c r="N154" s="59"/>
       <c r="O154" s="59"/>
     </row>
-    <row r="155" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="38">
         <v>151</v>
       </c>
@@ -25625,7 +25627,7 @@
       <c r="N156" s="59"/>
       <c r="O156" s="59"/>
     </row>
-    <row r="157" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30">
         <v>153</v>
       </c>
@@ -25742,7 +25744,7 @@
       <c r="N159" s="59"/>
       <c r="O159" s="59"/>
     </row>
-    <row r="160" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30">
         <v>156</v>
       </c>
@@ -25781,7 +25783,7 @@
       <c r="N160" s="59"/>
       <c r="O160" s="59"/>
     </row>
-    <row r="161" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
         <v>157</v>
       </c>
@@ -25820,7 +25822,7 @@
       <c r="N161" s="59"/>
       <c r="O161" s="59"/>
     </row>
-    <row r="162" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30">
         <v>158</v>
       </c>
@@ -25861,7 +25863,7 @@
       <c r="N162" s="59"/>
       <c r="O162" s="59"/>
     </row>
-    <row r="163" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30">
         <v>159</v>
       </c>
@@ -25900,7 +25902,7 @@
       <c r="N163" s="59"/>
       <c r="O163" s="59"/>
     </row>
-    <row r="164" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <v>160</v>
       </c>
@@ -25939,7 +25941,7 @@
       <c r="N164" s="59"/>
       <c r="O164" s="59"/>
     </row>
-    <row r="165" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30">
         <v>161</v>
       </c>
@@ -25980,7 +25982,7 @@
       <c r="N165" s="59"/>
       <c r="O165" s="59"/>
     </row>
-    <row r="166" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30">
         <v>162</v>
       </c>
@@ -26179,7 +26181,7 @@
       <c r="N170" s="59"/>
       <c r="O170" s="59"/>
     </row>
-    <row r="171" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30">
         <v>167</v>
       </c>
@@ -26218,7 +26220,7 @@
       <c r="N171" s="59"/>
       <c r="O171" s="59"/>
     </row>
-    <row r="172" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30">
         <v>168</v>
       </c>
@@ -26257,7 +26259,7 @@
       <c r="N172" s="59"/>
       <c r="O172" s="59"/>
     </row>
-    <row r="173" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="38">
         <v>169</v>
       </c>
@@ -26296,7 +26298,7 @@
       <c r="N173" s="59"/>
       <c r="O173" s="59"/>
     </row>
-    <row r="174" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="30">
         <v>170</v>
       </c>
@@ -26333,7 +26335,7 @@
       <c r="N174" s="59"/>
       <c r="O174" s="59"/>
     </row>
-    <row r="175" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="30">
         <v>171</v>
       </c>
@@ -26370,7 +26372,7 @@
       <c r="N175" s="59"/>
       <c r="O175" s="59"/>
     </row>
-    <row r="176" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="38">
         <v>172</v>
       </c>
@@ -26411,7 +26413,7 @@
       <c r="N176" s="59"/>
       <c r="O176" s="59"/>
     </row>
-    <row r="177" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="30">
         <v>173</v>
       </c>
@@ -26452,7 +26454,7 @@
       <c r="N177" s="59"/>
       <c r="O177" s="59"/>
     </row>
-    <row r="178" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="30">
         <v>174</v>
       </c>
@@ -26532,7 +26534,7 @@
       <c r="N179" s="59"/>
       <c r="O179" s="59"/>
     </row>
-    <row r="180" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="38">
         <v>181</v>
       </c>
@@ -26571,7 +26573,7 @@
       <c r="N180" s="59"/>
       <c r="O180" s="59"/>
     </row>
-    <row r="181" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="30">
         <v>182</v>
       </c>
@@ -26610,7 +26612,7 @@
       <c r="N181" s="59"/>
       <c r="O181" s="59"/>
     </row>
-    <row r="182" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="30">
         <v>183</v>
       </c>
@@ -26688,7 +26690,7 @@
       <c r="N183" s="59"/>
       <c r="O183" s="59"/>
     </row>
-    <row r="184" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="30">
         <v>185</v>
       </c>
@@ -26727,7 +26729,7 @@
       <c r="N184" s="59"/>
       <c r="O184" s="59"/>
     </row>
-    <row r="185" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="30">
         <v>186</v>
       </c>
@@ -26766,7 +26768,7 @@
       <c r="N185" s="59"/>
       <c r="O185" s="59"/>
     </row>
-    <row r="186" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="38">
         <v>187</v>
       </c>
@@ -26805,7 +26807,7 @@
       <c r="N186" s="59"/>
       <c r="O186" s="59"/>
     </row>
-    <row r="187" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="30">
         <v>188</v>
       </c>
@@ -26842,7 +26844,7 @@
       <c r="N187" s="59"/>
       <c r="O187" s="59"/>
     </row>
-    <row r="188" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="30">
         <v>189</v>
       </c>
@@ -26883,7 +26885,7 @@
       <c r="N188" s="59"/>
       <c r="O188" s="59"/>
     </row>
-    <row r="189" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="38">
         <v>190</v>
       </c>
@@ -26924,7 +26926,7 @@
       <c r="N189" s="59"/>
       <c r="O189" s="59"/>
     </row>
-    <row r="190" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="30">
         <v>191</v>
       </c>
@@ -26961,7 +26963,7 @@
       <c r="N190" s="59"/>
       <c r="O190" s="59"/>
     </row>
-    <row r="191" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="30">
         <v>192</v>
       </c>
@@ -26998,7 +27000,7 @@
       <c r="N191" s="59"/>
       <c r="O191" s="59"/>
     </row>
-    <row r="192" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="38">
         <v>193</v>
       </c>
@@ -27035,7 +27037,7 @@
       <c r="N192" s="59"/>
       <c r="O192" s="59"/>
     </row>
-    <row r="193" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30">
         <v>195</v>
       </c>
@@ -27072,7 +27074,7 @@
       <c r="N193" s="59"/>
       <c r="O193" s="59"/>
     </row>
-    <row r="194" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="38">
         <v>196</v>
       </c>
@@ -27109,7 +27111,7 @@
       <c r="N194" s="59"/>
       <c r="O194" s="59"/>
     </row>
-    <row r="195" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="30">
         <v>198</v>
       </c>
@@ -27146,7 +27148,7 @@
       <c r="N195" s="59"/>
       <c r="O195" s="59"/>
     </row>
-    <row r="196" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="38">
         <v>199</v>
       </c>
@@ -27183,7 +27185,7 @@
       <c r="N196" s="59"/>
       <c r="O196" s="59"/>
     </row>
-    <row r="197" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="30">
         <v>200</v>
       </c>
@@ -27220,7 +27222,7 @@
       <c r="N197" s="59"/>
       <c r="O197" s="59"/>
     </row>
-    <row r="198" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="30">
         <v>201</v>
       </c>
@@ -27257,7 +27259,7 @@
       <c r="N198" s="59"/>
       <c r="O198" s="59"/>
     </row>
-    <row r="199" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="38">
         <v>202</v>
       </c>
@@ -27294,7 +27296,7 @@
       <c r="N199" s="59"/>
       <c r="O199" s="59"/>
     </row>
-    <row r="200" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="30">
         <v>203</v>
       </c>
@@ -27331,7 +27333,7 @@
       <c r="N200" s="59"/>
       <c r="O200" s="59"/>
     </row>
-    <row r="201" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="30">
         <v>204</v>
       </c>
@@ -27368,7 +27370,7 @@
       <c r="N201" s="59"/>
       <c r="O201" s="59"/>
     </row>
-    <row r="202" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="38">
         <v>205</v>
       </c>
@@ -27405,7 +27407,7 @@
       <c r="N202" s="59"/>
       <c r="O202" s="59"/>
     </row>
-    <row r="203" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="30">
         <v>206</v>
       </c>
@@ -27442,7 +27444,7 @@
       <c r="N203" s="59"/>
       <c r="O203" s="59"/>
     </row>
-    <row r="204" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="30">
         <v>207</v>
       </c>
@@ -27479,7 +27481,7 @@
       <c r="N204" s="59"/>
       <c r="O204" s="59"/>
     </row>
-    <row r="205" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="38">
         <v>208</v>
       </c>
@@ -27516,7 +27518,7 @@
       <c r="N205" s="59"/>
       <c r="O205" s="59"/>
     </row>
-    <row r="206" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="30">
         <v>209</v>
       </c>
@@ -27553,7 +27555,7 @@
       <c r="N206" s="59"/>
       <c r="O206" s="59"/>
     </row>
-    <row r="207" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="30">
         <v>210</v>
       </c>
@@ -27590,7 +27592,7 @@
       <c r="N207" s="59"/>
       <c r="O207" s="59"/>
     </row>
-    <row r="208" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="38">
         <v>211</v>
       </c>
@@ -27627,7 +27629,7 @@
       <c r="N208" s="59"/>
       <c r="O208" s="59"/>
     </row>
-    <row r="209" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="30">
         <v>212</v>
       </c>
@@ -27668,7 +27670,7 @@
       <c r="N209" s="59"/>
       <c r="O209" s="59"/>
     </row>
-    <row r="210" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="30">
         <v>213</v>
       </c>
@@ -27705,7 +27707,7 @@
       <c r="N210" s="59"/>
       <c r="O210" s="59"/>
     </row>
-    <row r="211" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="38">
         <v>214</v>
       </c>
@@ -27742,7 +27744,7 @@
       <c r="N211" s="59"/>
       <c r="O211" s="59"/>
     </row>
-    <row r="212" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="30">
         <v>215</v>
       </c>
@@ -27779,7 +27781,7 @@
       <c r="N212" s="59"/>
       <c r="O212" s="59"/>
     </row>
-    <row r="213" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="30">
         <v>216</v>
       </c>
@@ -27816,7 +27818,7 @@
       <c r="N213" s="59"/>
       <c r="O213" s="59"/>
     </row>
-    <row r="214" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <v>217</v>
       </c>
@@ -27853,7 +27855,7 @@
       <c r="N214" s="59"/>
       <c r="O214" s="59"/>
     </row>
-    <row r="215" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="30">
         <v>218</v>
       </c>
@@ -27890,7 +27892,7 @@
       <c r="N215" s="59"/>
       <c r="O215" s="59"/>
     </row>
-    <row r="216" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="30">
         <v>219</v>
       </c>
@@ -27927,7 +27929,7 @@
       <c r="N216" s="59"/>
       <c r="O216" s="59"/>
     </row>
-    <row r="217" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <v>220</v>
       </c>
@@ -27968,7 +27970,7 @@
       <c r="N217" s="59"/>
       <c r="O217" s="59"/>
     </row>
-    <row r="218" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="30">
         <v>221</v>
       </c>
@@ -28009,7 +28011,7 @@
       <c r="N218" s="59"/>
       <c r="O218" s="59"/>
     </row>
-    <row r="219" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="30">
         <v>222</v>
       </c>
@@ -28204,7 +28206,7 @@
       <c r="N223" s="59"/>
       <c r="O223" s="59"/>
     </row>
-    <row r="224" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="30">
         <v>228</v>
       </c>
@@ -28243,7 +28245,7 @@
       <c r="N224" s="59"/>
       <c r="O224" s="59"/>
     </row>
-    <row r="225" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="38">
         <v>229</v>
       </c>
@@ -28282,7 +28284,7 @@
       <c r="N225" s="59"/>
       <c r="O225" s="59"/>
     </row>
-    <row r="226" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="30">
         <v>230</v>
       </c>
@@ -28321,7 +28323,7 @@
       <c r="N226" s="59"/>
       <c r="O226" s="59"/>
     </row>
-    <row r="227" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="30">
         <v>231</v>
       </c>
@@ -28360,7 +28362,7 @@
       <c r="N227" s="59"/>
       <c r="O227" s="59"/>
     </row>
-    <row r="228" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="30">
         <v>233</v>
       </c>
@@ -28438,7 +28440,7 @@
       <c r="N229" s="59"/>
       <c r="O229" s="59"/>
     </row>
-    <row r="230" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="38">
         <v>235</v>
       </c>
@@ -28477,7 +28479,7 @@
       <c r="N230" s="59"/>
       <c r="O230" s="59"/>
     </row>
-    <row r="231" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="30">
         <v>236</v>
       </c>
@@ -28516,7 +28518,7 @@
       <c r="N231" s="59"/>
       <c r="O231" s="59"/>
     </row>
-    <row r="232" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="30">
         <v>237</v>
       </c>
@@ -28594,7 +28596,7 @@
       <c r="N233" s="59"/>
       <c r="O233" s="59"/>
     </row>
-    <row r="234" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="30">
         <v>239</v>
       </c>
@@ -28633,7 +28635,7 @@
       <c r="N234" s="59"/>
       <c r="O234" s="59"/>
     </row>
-    <row r="235" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="30">
         <v>240</v>
       </c>
@@ -28672,7 +28674,7 @@
       <c r="N235" s="59"/>
       <c r="O235" s="59"/>
     </row>
-    <row r="236" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="38">
         <v>241</v>
       </c>
@@ -28711,7 +28713,7 @@
       <c r="N236" s="59"/>
       <c r="O236" s="59"/>
     </row>
-    <row r="237" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="38">
         <v>250</v>
       </c>
@@ -28750,7 +28752,7 @@
       <c r="N237" s="59"/>
       <c r="O237" s="59"/>
     </row>
-    <row r="238" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="30">
         <v>252</v>
       </c>
@@ -28828,7 +28830,7 @@
       <c r="N239" s="59"/>
       <c r="O239" s="59"/>
     </row>
-    <row r="240" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="30">
         <v>254</v>
       </c>
@@ -28906,7 +28908,7 @@
       <c r="N241" s="59"/>
       <c r="O241" s="59"/>
     </row>
-    <row r="242" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="38">
         <v>256</v>
       </c>
@@ -28945,7 +28947,7 @@
       <c r="N242" s="59"/>
       <c r="O242" s="59"/>
     </row>
-    <row r="243" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="30">
         <v>257</v>
       </c>
@@ -28984,7 +28986,7 @@
       <c r="N243" s="59"/>
       <c r="O243" s="59"/>
     </row>
-    <row r="244" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="30">
         <v>258</v>
       </c>
@@ -29023,7 +29025,7 @@
       <c r="N244" s="59"/>
       <c r="O244" s="59"/>
     </row>
-    <row r="245" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="38"/>
       <c r="B245" s="31">
         <v>43799</v>
@@ -29060,7 +29062,7 @@
       <c r="N245" s="59"/>
       <c r="O245" s="59"/>
     </row>
-    <row r="246" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="38"/>
       <c r="B246" s="31">
         <v>43804</v>
@@ -29097,7 +29099,7 @@
       <c r="N246" s="59"/>
       <c r="O246" s="59"/>
     </row>
-    <row r="247" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="38">
         <v>259</v>
       </c>
@@ -29179,7 +29181,7 @@
       <c r="N248" s="59"/>
       <c r="O248" s="59"/>
     </row>
-    <row r="249" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="30">
         <v>261</v>
       </c>
@@ -29218,7 +29220,7 @@
       <c r="N249" s="59"/>
       <c r="O249" s="59"/>
     </row>
-    <row r="250" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="38">
         <v>262</v>
       </c>
@@ -29257,7 +29259,7 @@
       <c r="N250" s="59"/>
       <c r="O250" s="59"/>
     </row>
-    <row r="251" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="30">
         <v>263</v>
       </c>
@@ -29335,7 +29337,7 @@
       <c r="N252" s="59"/>
       <c r="O252" s="59"/>
     </row>
-    <row r="253" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="38">
         <v>265</v>
       </c>
@@ -29374,7 +29376,7 @@
       <c r="N253" s="59"/>
       <c r="O253" s="59"/>
     </row>
-    <row r="254" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="30">
         <v>266</v>
       </c>
@@ -29413,7 +29415,7 @@
       <c r="N254" s="59"/>
       <c r="O254" s="59"/>
     </row>
-    <row r="255" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="30">
         <v>267</v>
       </c>
@@ -29452,7 +29454,7 @@
       <c r="N255" s="59"/>
       <c r="O255" s="59"/>
     </row>
-    <row r="256" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <v>268</v>
       </c>
@@ -29489,7 +29491,7 @@
       <c r="N256" s="59"/>
       <c r="O256" s="59"/>
     </row>
-    <row r="257" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="30">
         <v>269</v>
       </c>
@@ -29526,7 +29528,7 @@
       <c r="N257" s="59"/>
       <c r="O257" s="59"/>
     </row>
-    <row r="258" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="30">
         <v>270</v>
       </c>
@@ -29563,7 +29565,7 @@
       <c r="N258" s="59"/>
       <c r="O258" s="59"/>
     </row>
-    <row r="259" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="38">
         <v>271</v>
       </c>
@@ -29600,7 +29602,7 @@
       <c r="N259" s="59"/>
       <c r="O259" s="59"/>
     </row>
-    <row r="260" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="30">
         <v>272</v>
       </c>
@@ -29637,7 +29639,7 @@
       <c r="N260" s="59"/>
       <c r="O260" s="59"/>
     </row>
-    <row r="261" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="30">
         <v>273</v>
       </c>
@@ -29674,7 +29676,7 @@
       <c r="N261" s="59"/>
       <c r="O261" s="59"/>
     </row>
-    <row r="262" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="38">
         <v>280</v>
       </c>
@@ -29754,7 +29756,7 @@
       <c r="N263" s="59"/>
       <c r="O263" s="59"/>
     </row>
-    <row r="264" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="30">
         <v>282</v>
       </c>
@@ -29793,7 +29795,7 @@
       <c r="N264" s="59"/>
       <c r="O264" s="59"/>
     </row>
-    <row r="265" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="38">
         <v>283</v>
       </c>
@@ -29871,7 +29873,7 @@
       <c r="N266" s="59"/>
       <c r="O266" s="59"/>
     </row>
-    <row r="267" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="30">
         <v>285</v>
       </c>
@@ -29910,7 +29912,7 @@
       <c r="N267" s="59"/>
       <c r="O267" s="59"/>
     </row>
-    <row r="268" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="38">
         <v>286</v>
       </c>
@@ -29949,7 +29951,7 @@
       <c r="N268" s="59"/>
       <c r="O268" s="59"/>
     </row>
-    <row r="269" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="30">
         <v>287</v>
       </c>
@@ -29988,7 +29990,7 @@
       <c r="N269" s="59"/>
       <c r="O269" s="59"/>
     </row>
-    <row r="270" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="30">
         <v>288</v>
       </c>
@@ -30027,7 +30029,7 @@
       <c r="N270" s="59"/>
       <c r="O270" s="59"/>
     </row>
-    <row r="271" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <v>289</v>
       </c>
@@ -30066,7 +30068,7 @@
       <c r="N271" s="59"/>
       <c r="O271" s="59"/>
     </row>
-    <row r="272" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="30">
         <v>290</v>
       </c>
@@ -30105,7 +30107,7 @@
       <c r="N272" s="59"/>
       <c r="O272" s="59"/>
     </row>
-    <row r="273" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="30">
         <v>291</v>
       </c>
@@ -30144,7 +30146,7 @@
       <c r="N273" s="59"/>
       <c r="O273" s="59"/>
     </row>
-    <row r="274" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="38">
         <v>292</v>
       </c>
@@ -30183,7 +30185,7 @@
       <c r="N274" s="59"/>
       <c r="O274" s="59"/>
     </row>
-    <row r="275" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="30">
         <v>293</v>
       </c>
@@ -30222,7 +30224,7 @@
       <c r="N275" s="59"/>
       <c r="O275" s="59"/>
     </row>
-    <row r="276" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="30">
         <v>294</v>
       </c>
@@ -30261,7 +30263,7 @@
       <c r="N276" s="59"/>
       <c r="O276" s="59"/>
     </row>
-    <row r="277" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="38">
         <v>295</v>
       </c>
@@ -30300,7 +30302,7 @@
       <c r="N277" s="59"/>
       <c r="O277" s="59"/>
     </row>
-    <row r="278" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="30">
         <v>296</v>
       </c>
@@ -30343,7 +30345,7 @@
       <c r="N278" s="59"/>
       <c r="O278" s="59"/>
     </row>
-    <row r="279" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="30">
         <v>297</v>
       </c>
@@ -30386,7 +30388,7 @@
       <c r="N279" s="59"/>
       <c r="O279" s="59"/>
     </row>
-    <row r="280" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="38">
         <v>298</v>
       </c>
@@ -30429,7 +30431,7 @@
       <c r="N280" s="59"/>
       <c r="O280" s="59"/>
     </row>
-    <row r="281" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="30">
         <v>299</v>
       </c>
@@ -30472,7 +30474,7 @@
       <c r="N281" s="59"/>
       <c r="O281" s="59"/>
     </row>
-    <row r="282" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="30">
         <v>300</v>
       </c>
@@ -30515,7 +30517,7 @@
       <c r="N282" s="59"/>
       <c r="O282" s="59"/>
     </row>
-    <row r="283" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="30">
         <v>303</v>
       </c>
@@ -30554,7 +30556,7 @@
       <c r="N283" s="59"/>
       <c r="O283" s="59"/>
     </row>
-    <row r="284" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="38">
         <v>304</v>
       </c>
@@ -30597,7 +30599,7 @@
       <c r="N284" s="59"/>
       <c r="O284" s="59"/>
     </row>
-    <row r="285" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="30">
         <v>305</v>
       </c>
@@ -30634,7 +30636,7 @@
       <c r="N285" s="59"/>
       <c r="O285" s="59"/>
     </row>
-    <row r="286" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="30">
         <v>306</v>
       </c>
@@ -30671,7 +30673,7 @@
       <c r="N286" s="59"/>
       <c r="O286" s="59"/>
     </row>
-    <row r="287" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="30">
         <v>308</v>
       </c>
@@ -30708,7 +30710,7 @@
       <c r="N287" s="59"/>
       <c r="O287" s="59"/>
     </row>
-    <row r="288" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="30">
         <v>309</v>
       </c>
@@ -30745,7 +30747,7 @@
       <c r="N288" s="59"/>
       <c r="O288" s="59"/>
     </row>
-    <row r="289" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="38">
         <v>310</v>
       </c>
@@ -30782,7 +30784,7 @@
       <c r="N289" s="59"/>
       <c r="O289" s="59"/>
     </row>
-    <row r="290" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="30">
         <v>311</v>
       </c>
@@ -30819,7 +30821,7 @@
       <c r="N290" s="59"/>
       <c r="O290" s="59"/>
     </row>
-    <row r="291" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="30">
         <v>312</v>
       </c>
@@ -30856,7 +30858,7 @@
       <c r="N291" s="59"/>
       <c r="O291" s="59"/>
     </row>
-    <row r="292" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="38">
         <v>313</v>
       </c>
@@ -30893,7 +30895,7 @@
       <c r="N292" s="59"/>
       <c r="O292" s="59"/>
     </row>
-    <row r="293" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="30">
         <v>314</v>
       </c>
@@ -30936,7 +30938,7 @@
       <c r="N293" s="59"/>
       <c r="O293" s="59"/>
     </row>
-    <row r="294" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="30">
         <v>315</v>
       </c>
@@ -30975,7 +30977,7 @@
       <c r="N294" s="59"/>
       <c r="O294" s="59"/>
     </row>
-    <row r="295" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="38">
         <v>316</v>
       </c>
@@ -31014,7 +31016,7 @@
       <c r="N295" s="59"/>
       <c r="O295" s="59"/>
     </row>
-    <row r="296" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="30">
         <v>317</v>
       </c>
@@ -31092,7 +31094,7 @@
       <c r="N297" s="59"/>
       <c r="O297" s="59"/>
     </row>
-    <row r="298" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="38">
         <v>319</v>
       </c>
@@ -31131,7 +31133,7 @@
       <c r="N298" s="59"/>
       <c r="O298" s="59"/>
     </row>
-    <row r="299" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="30">
         <v>320</v>
       </c>
@@ -31170,7 +31172,7 @@
       <c r="N299" s="59"/>
       <c r="O299" s="59"/>
     </row>
-    <row r="300" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="30">
         <v>321</v>
       </c>
@@ -31248,7 +31250,7 @@
       <c r="N301" s="59"/>
       <c r="O301" s="59"/>
     </row>
-    <row r="302" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="30">
         <v>323</v>
       </c>
@@ -31287,7 +31289,7 @@
       <c r="N302" s="59"/>
       <c r="O302" s="59"/>
     </row>
-    <row r="303" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="30">
         <v>324</v>
       </c>
@@ -31326,7 +31328,7 @@
       <c r="N303" s="59"/>
       <c r="O303" s="59"/>
     </row>
-    <row r="304" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="38">
         <v>325</v>
       </c>
@@ -31365,7 +31367,7 @@
       <c r="N304" s="59"/>
       <c r="O304" s="59"/>
     </row>
-    <row r="305" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="30">
         <v>326</v>
       </c>
@@ -31408,7 +31410,7 @@
       <c r="N305" s="59"/>
       <c r="O305" s="59"/>
     </row>
-    <row r="306" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="30">
         <v>327</v>
       </c>
@@ -31447,7 +31449,7 @@
       <c r="N306" s="59"/>
       <c r="O306" s="59"/>
     </row>
-    <row r="307" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="38">
         <v>343</v>
       </c>
@@ -31490,7 +31492,7 @@
       <c r="N307" s="59"/>
       <c r="O307" s="59"/>
     </row>
-    <row r="308" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A308" s="30">
         <v>344</v>
       </c>
@@ -31529,7 +31531,7 @@
       <c r="N308" s="59"/>
       <c r="O308" s="59"/>
     </row>
-    <row r="309" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="30">
         <v>345</v>
       </c>
@@ -31568,7 +31570,7 @@
       <c r="N309" s="59"/>
       <c r="O309" s="59"/>
     </row>
-    <row r="310" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="38">
         <v>346</v>
       </c>
@@ -31607,7 +31609,7 @@
       <c r="N310" s="59"/>
       <c r="O310" s="59"/>
     </row>
-    <row r="311" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="30">
         <v>347</v>
       </c>
@@ -31646,7 +31648,7 @@
       <c r="N311" s="59"/>
       <c r="O311" s="59"/>
     </row>
-    <row r="312" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="30">
         <v>348</v>
       </c>
@@ -31685,7 +31687,7 @@
       <c r="N312" s="59"/>
       <c r="O312" s="59"/>
     </row>
-    <row r="313" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="38">
         <v>349</v>
       </c>
@@ -31724,7 +31726,7 @@
       <c r="N313" s="59"/>
       <c r="O313" s="59"/>
     </row>
-    <row r="314" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="30">
         <v>350</v>
       </c>
@@ -31763,7 +31765,7 @@
       <c r="N314" s="59"/>
       <c r="O314" s="59"/>
     </row>
-    <row r="315" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="30">
         <v>351</v>
       </c>
@@ -31802,7 +31804,7 @@
       <c r="N315" s="59"/>
       <c r="O315" s="59"/>
     </row>
-    <row r="316" spans="1:15" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="38">
         <v>352</v>
       </c>
@@ -31843,7 +31845,7 @@
       <c r="N316" s="59"/>
       <c r="O316" s="59"/>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="59"/>
       <c r="B317" s="59"/>
       <c r="C317" s="80"/>
@@ -31867,143 +31869,6 @@
       <c r="O317" s="59"/>
     </row>
   </sheetData>
-  <autoFilter ref="E13:K317">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="1,088.00"/>
-        <filter val="1,114.00"/>
-        <filter val="1,240.00"/>
-        <filter val="1,274.00"/>
-        <filter val="1,434.00"/>
-        <filter val="1,440.00"/>
-        <filter val="1,446.00"/>
-        <filter val="1,476.00"/>
-        <filter val="1,535.00"/>
-        <filter val="1,576.00"/>
-        <filter val="1,603.64"/>
-        <filter val="1,665.00"/>
-        <filter val="1,928.00"/>
-        <filter val="1,933.30"/>
-        <filter val="10,141.26"/>
-        <filter val="10,489.81"/>
-        <filter val="13,822.64"/>
-        <filter val="13,990.01"/>
-        <filter val="14,175.72"/>
-        <filter val="14,265.22"/>
-        <filter val="14,268.41"/>
-        <filter val="14,270.01"/>
-        <filter val="14,520.96"/>
-        <filter val="15,820.01"/>
-        <filter val="16,029.39"/>
-        <filter val="18,526.29"/>
-        <filter val="2,041.00"/>
-        <filter val="2,092.00"/>
-        <filter val="2,095.35"/>
-        <filter val="2,138.00"/>
-        <filter val="2,237.00"/>
-        <filter val="2,595.00"/>
-        <filter val="20,340.77"/>
-        <filter val="4,472.04"/>
-        <filter val="5,385.00"/>
-        <filter val="5,388.53"/>
-        <filter val="54,794.35"/>
-        <filter val="6,726.87"/>
-        <filter val="6,898.00"/>
-        <filter val="8,338.69"/>
-        <filter val="8,491.91"/>
-        <filter val="8,764.72"/>
-        <filter val="9,055.94"/>
-        <filter val="9,186.17"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1,088.00"/>
-        <filter val="1,114.00"/>
-        <filter val="1,240.00"/>
-        <filter val="1,274.00"/>
-        <filter val="1,434.00"/>
-        <filter val="1,440.00"/>
-        <filter val="1,446.00"/>
-        <filter val="1,476.00"/>
-        <filter val="1,535.00"/>
-        <filter val="1,576.00"/>
-        <filter val="1,603.64"/>
-        <filter val="1,665.00"/>
-        <filter val="1,928.00"/>
-        <filter val="1,933.30"/>
-        <filter val="1.60"/>
-        <filter val="10,141.26"/>
-        <filter val="10,489.81"/>
-        <filter val="120.50"/>
-        <filter val="13,822.64"/>
-        <filter val="13,990.01"/>
-        <filter val="134.00"/>
-        <filter val="14,175.72"/>
-        <filter val="14,265.22"/>
-        <filter val="14,268.41"/>
-        <filter val="14,270.01"/>
-        <filter val="14,520.96"/>
-        <filter val="15,820.01"/>
-        <filter val="152.37"/>
-        <filter val="16,029.39"/>
-        <filter val="168.00"/>
-        <filter val="18,526.29"/>
-        <filter val="199.41"/>
-        <filter val="2,041.00"/>
-        <filter val="2,092.00"/>
-        <filter val="2,095.35"/>
-        <filter val="2,138.00"/>
-        <filter val="2,237.00"/>
-        <filter val="2,595.00"/>
-        <filter val="20,340.77"/>
-        <filter val="200.90"/>
-        <filter val="226.00"/>
-        <filter val="231.16"/>
-        <filter val="244.00"/>
-        <filter val="246.33"/>
-        <filter val="250.00"/>
-        <filter val="252.22"/>
-        <filter val="260.00"/>
-        <filter val="261.91"/>
-        <filter val="277.96"/>
-        <filter val="280.00"/>
-        <filter val="282.00"/>
-        <filter val="282.23"/>
-        <filter val="299.32"/>
-        <filter val="307.00"/>
-        <filter val="315.36"/>
-        <filter val="378.32"/>
-        <filter val="4,472.04"/>
-        <filter val="4.79"/>
-        <filter val="443.66"/>
-        <filter val="462.83"/>
-        <filter val="473.34"/>
-        <filter val="492.66"/>
-        <filter val="5,385.00"/>
-        <filter val="5,388.53"/>
-        <filter val="510.75"/>
-        <filter val="52.54"/>
-        <filter val="535.95"/>
-        <filter val="54,794.35"/>
-        <filter val="541.91"/>
-        <filter val="6,726.87"/>
-        <filter val="6,898.00"/>
-        <filter val="60.00"/>
-        <filter val="634.00"/>
-        <filter val="65.72"/>
-        <filter val="663.00"/>
-        <filter val="7.00"/>
-        <filter val="74.83"/>
-        <filter val="8,338.69"/>
-        <filter val="8,491.91"/>
-        <filter val="8,764.72"/>
-        <filter val="84.00"/>
-        <filter val="9,055.94"/>
-        <filter val="9,186.17"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -32041,34 +31906,34 @@
       <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="173"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="174"/>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="174"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="175"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -32084,19 +31949,19 @@
       <c r="K4" s="83"/>
     </row>
     <row r="5" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="175"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="176"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -32195,14 +32060,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -32212,17 +32077,17 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="162" t="s">
+      <c r="H12" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
       <c r="K12" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -32883,36 +32748,36 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
     </row>
     <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -32929,20 +32794,20 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -33047,14 +32912,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -33064,18 +32929,18 @@
       <c r="G12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="162" t="s">
+      <c r="H12" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="168"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="172"/>
       <c r="L12" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -35647,14 +35512,14 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="147" t="s">
+      <c r="A76" s="148" t="s">
         <v>344</v>
       </c>
-      <c r="B76" s="148"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="149"/>
+      <c r="B76" s="149"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="150"/>
       <c r="G76" s="78">
         <f>SUM(G14:G75)</f>
         <v>143877.60999999999</v>
@@ -35739,30 +35604,30 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
     </row>
     <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -35776,17 +35641,17 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -35873,14 +35738,14 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="87" t="s">
         <v>13</v>
       </c>
@@ -35898,7 +35763,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
@@ -37267,14 +37132,14 @@
       <c r="K55" s="67"/>
     </row>
     <row r="56" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="147" t="s">
+      <c r="A56" s="148" t="s">
         <v>344</v>
       </c>
-      <c r="B56" s="148"/>
-      <c r="C56" s="148"/>
-      <c r="D56" s="148"/>
-      <c r="E56" s="148"/>
-      <c r="F56" s="149"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="149"/>
+      <c r="F56" s="150"/>
       <c r="G56" s="78">
         <f>SUM(G14:G55)</f>
         <v>121522.06</v>
@@ -37341,7 +37206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
@@ -37362,34 +37227,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
     </row>
     <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -37405,19 +37270,19 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -37451,10 +37316,10 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="165"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
@@ -37470,10 +37335,10 @@
       <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="131" t="s">
         <v>10</v>
       </c>
@@ -37489,10 +37354,10 @@
       <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="166" t="s">
+      <c r="A9" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="166"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="131" t="s">
         <v>10</v>
       </c>
@@ -37523,32 +37388,32 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="176" t="s">
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="178" t="s">
+      <c r="F11" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="180" t="s">
+      <c r="G11" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="164" t="s">
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="165" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="157"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="24" t="s">
         <v>18</v>
       </c>
@@ -37558,9 +37423,9 @@
       <c r="D12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="177"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="181"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="182"/>
       <c r="H12" s="28" t="s">
         <v>24</v>
       </c>
@@ -37570,7 +37435,7 @@
       <c r="J12" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="K12" s="157"/>
+      <c r="K12" s="158"/>
       <c r="L12" s="29" t="s">
         <v>26</v>
       </c>
@@ -37989,14 +37854,14 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="147" t="s">
+      <c r="A23" s="148" t="s">
         <v>344</v>
       </c>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="149"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="150"/>
       <c r="G23" s="138">
         <f>SUM(G13:G22)</f>
         <v>9810</v>
@@ -38006,44 +37871,44 @@
         <v>9810</v>
       </c>
       <c r="I23" s="138">
-        <f t="shared" ref="H23:J23" si="0">SUM(I13:I22)</f>
+        <f t="shared" ref="I23:J23" si="0">SUM(I13:I22)</f>
         <v>0</v>
       </c>
       <c r="J23" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="182"/>
+      <c r="K23" s="147"/>
     </row>
     <row r="24" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="150"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A25" s="152" t="s">
+      <c r="A25" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="152"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -38059,19 +37924,19 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="154" t="s">
+      <c r="A27" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
     </row>
     <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -38105,10 +37970,10 @@
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="165"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
@@ -38124,10 +37989,10 @@
       <c r="K30" s="167"/>
     </row>
     <row r="31" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="165"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="131" t="s">
         <v>10</v>
       </c>
@@ -38143,10 +38008,10 @@
       <c r="K31" s="167"/>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="166"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="131" t="s">
         <v>10</v>
       </c>
@@ -38177,32 +38042,32 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="156" t="s">
+      <c r="A34" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="158" t="s">
+      <c r="B34" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="176" t="s">
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="178" t="s">
+      <c r="F34" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="180" t="s">
+      <c r="G34" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="168"/>
-      <c r="K34" s="164" t="s">
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="165" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="157"/>
+      <c r="A35" s="158"/>
       <c r="B35" s="24" t="s">
         <v>18</v>
       </c>
@@ -38212,9 +38077,9 @@
       <c r="D35" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="177"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="181"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="182"/>
       <c r="H35" s="28" t="s">
         <v>24</v>
       </c>
@@ -38224,7 +38089,7 @@
       <c r="J35" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="K35" s="157"/>
+      <c r="K35" s="158"/>
       <c r="L35" s="29" t="s">
         <v>26</v>
       </c>
@@ -38233,14 +38098,14 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="147" t="s">
+      <c r="A36" s="148" t="s">
         <v>380</v>
       </c>
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="149"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="150"/>
       <c r="G36" s="138">
         <f>G23</f>
         <v>9810</v>
@@ -38667,14 +38532,14 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="147" t="s">
+      <c r="A47" s="148" t="s">
         <v>344</v>
       </c>
-      <c r="B47" s="148"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="149"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="150"/>
       <c r="G47" s="138">
         <f>SUM(G36:G46)</f>
         <v>22355.550000000003</v>
@@ -38691,7 +38556,7 @@
         <f>SUM(J36:J46)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="182"/>
+      <c r="K47" s="147"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
@@ -38706,25 +38571,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A4:K4"/>
@@ -38739,9 +38585,28 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:K35"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.31496062992125984" top="0.47244094488188981" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="23" max="10" man="1"/>
   </rowBreaks>
